--- a/data_month/zb/能源/能源主要产品产量/天然气.xlsx
+++ b/data_month/zb/能源/能源主要产品产量/天然气.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E253"/>
+  <dimension ref="A1:F253"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,4765 +454,5526 @@
           <t>天然气产量_累计增长</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>天然气产量</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年10月</t>
+          <t>2000-04</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9.6</v>
+        <v>8.1</v>
       </c>
       <c r="C2" t="n">
-        <v>23.09</v>
+        <v>20.78</v>
       </c>
       <c r="D2" t="n">
-        <v>220.87</v>
+        <v>90.58</v>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>12.6</v>
+      </c>
+      <c r="F2" t="n">
+        <v>90.58</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2000年11月</t>
+          <t>2000-05</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.2</v>
+        <v>6.2</v>
       </c>
       <c r="C3" t="n">
-        <v>23.99</v>
+        <v>21.53</v>
       </c>
       <c r="D3" t="n">
-        <v>245.23</v>
+        <v>112.13</v>
       </c>
       <c r="E3" t="n">
-        <v>7.9</v>
+        <v>11.3</v>
+      </c>
+      <c r="F3" t="n">
+        <v>21.55</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2000年12月</t>
+          <t>2000-06</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>31.33</v>
+        <v>21.84</v>
       </c>
       <c r="D4" t="n">
-        <v>277.26</v>
+        <v>134.23</v>
       </c>
       <c r="E4" t="n">
-        <v>9.4</v>
+        <v>11.1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>22.09999999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2000年4月</t>
+          <t>2000-07</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.1</v>
+        <v>3.5</v>
       </c>
       <c r="C5" t="n">
-        <v>20.78</v>
+        <v>21.41</v>
       </c>
       <c r="D5" t="n">
-        <v>90.58</v>
+        <v>155.25</v>
       </c>
       <c r="E5" t="n">
-        <v>12.6</v>
+        <v>9.1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>21.02000000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2000年5月</t>
+          <t>2000-08</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="C6" t="n">
-        <v>21.53</v>
+        <v>21.7</v>
       </c>
       <c r="D6" t="n">
-        <v>112.13</v>
+        <v>176.95</v>
       </c>
       <c r="E6" t="n">
-        <v>11.3</v>
+        <v>8.699999999999999</v>
+      </c>
+      <c r="F6" t="n">
+        <v>21.69999999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2000年6月</t>
+          <t>2000-09</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9</v>
+        <v>5.1</v>
       </c>
       <c r="C7" t="n">
-        <v>21.84</v>
+        <v>21.66</v>
       </c>
       <c r="D7" t="n">
-        <v>134.23</v>
+        <v>198.61</v>
       </c>
       <c r="E7" t="n">
-        <v>11.1</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="F7" t="n">
+        <v>21.66000000000003</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2000年7月</t>
+          <t>2000-10</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.5</v>
+        <v>9.6</v>
       </c>
       <c r="C8" t="n">
-        <v>21.41</v>
+        <v>23.09</v>
       </c>
       <c r="D8" t="n">
-        <v>155.25</v>
+        <v>220.87</v>
       </c>
       <c r="E8" t="n">
-        <v>9.1</v>
+        <v>8</v>
+      </c>
+      <c r="F8" t="n">
+        <v>22.25999999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2000年8月</t>
+          <t>2000-11</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.9</v>
+        <v>5.2</v>
       </c>
       <c r="C9" t="n">
-        <v>21.7</v>
+        <v>23.99</v>
       </c>
       <c r="D9" t="n">
-        <v>176.95</v>
+        <v>245.23</v>
       </c>
       <c r="E9" t="n">
-        <v>8.699999999999999</v>
+        <v>7.9</v>
+      </c>
+      <c r="F9" t="n">
+        <v>24.35999999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2000年9月</t>
+          <t>2000-12</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.1</v>
+        <v>21</v>
       </c>
       <c r="C10" t="n">
-        <v>21.66</v>
+        <v>31.33</v>
       </c>
       <c r="D10" t="n">
-        <v>198.61</v>
+        <v>277.26</v>
       </c>
       <c r="E10" t="n">
-        <v>8.300000000000001</v>
+        <v>9.4</v>
+      </c>
+      <c r="F10" t="n">
+        <v>32.03</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2001年10月</t>
+          <t>2001-01</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12.62</v>
+        <v>7.3</v>
       </c>
       <c r="C11" t="n">
-        <v>25.5</v>
+        <v>24.53</v>
       </c>
       <c r="D11" t="n">
-        <v>247.85</v>
+        <v>24.53</v>
       </c>
       <c r="E11" t="n">
-        <v>12.4</v>
+        <v>7.3</v>
+      </c>
+      <c r="F11" t="n">
+        <v>24.53</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2001年11月</t>
+          <t>2001-02</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>11.25</v>
+        <v>0.6</v>
       </c>
       <c r="C12" t="n">
-        <v>26.61</v>
+        <v>25.15</v>
       </c>
       <c r="D12" t="n">
-        <v>274.46</v>
+        <v>49.88</v>
       </c>
       <c r="E12" t="n">
-        <v>11.92</v>
+        <v>-2.1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>25.35</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2001年12月</t>
+          <t>2001-03</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7.77</v>
+        <v>0.6</v>
       </c>
       <c r="C13" t="n">
-        <v>28.56</v>
+        <v>24.3</v>
       </c>
       <c r="D13" t="n">
-        <v>303.44</v>
+        <v>74.28</v>
       </c>
       <c r="E13" t="n">
-        <v>11.5</v>
+        <v>2.8</v>
+      </c>
+      <c r="F13" t="n">
+        <v>24.4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2001年1月</t>
+          <t>2001-04</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.3</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>24.53</v>
+        <v>23.04</v>
       </c>
       <c r="D14" t="n">
-        <v>24.53</v>
+        <v>97.15000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
+      </c>
+      <c r="F14" t="n">
+        <v>22.87</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2001年2月</t>
+          <t>2001-05</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.6</v>
+        <v>13.55</v>
       </c>
       <c r="C15" t="n">
-        <v>25.15</v>
+        <v>24.82</v>
       </c>
       <c r="D15" t="n">
-        <v>49.88</v>
+        <v>122.02</v>
       </c>
       <c r="E15" t="n">
-        <v>-2.1</v>
+        <v>8.4</v>
+      </c>
+      <c r="F15" t="n">
+        <v>24.86999999999999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2001年3月</t>
+          <t>2001-06</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.6</v>
+        <v>14.63</v>
       </c>
       <c r="C16" t="n">
-        <v>24.3</v>
+        <v>24.99</v>
       </c>
       <c r="D16" t="n">
-        <v>74.28</v>
+        <v>146.82</v>
       </c>
       <c r="E16" t="n">
-        <v>2.8</v>
+        <v>9.359999999999999</v>
+      </c>
+      <c r="F16" t="n">
+        <v>24.8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2001年4月</t>
+          <t>2001-07</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>9.199999999999999</v>
+        <v>16.4</v>
       </c>
       <c r="C17" t="n">
-        <v>23.04</v>
+        <v>24.81</v>
       </c>
       <c r="D17" t="n">
-        <v>97.15000000000001</v>
+        <v>171.63</v>
       </c>
       <c r="E17" t="n">
-        <v>7.1</v>
+        <v>10.32</v>
+      </c>
+      <c r="F17" t="n">
+        <v>24.81</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2001年5月</t>
+          <t>2001-08</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>13.55</v>
+        <v>17.22</v>
       </c>
       <c r="C18" t="n">
-        <v>24.82</v>
+        <v>25.4</v>
       </c>
       <c r="D18" t="n">
-        <v>122.02</v>
+        <v>197.4</v>
       </c>
       <c r="E18" t="n">
-        <v>8.4</v>
+        <v>11.27</v>
+      </c>
+      <c r="F18" t="n">
+        <v>25.77000000000001</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2001年6月</t>
+          <t>2001-09</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>14.63</v>
+        <v>18.71</v>
       </c>
       <c r="C19" t="n">
-        <v>24.99</v>
+        <v>25.48</v>
       </c>
       <c r="D19" t="n">
-        <v>146.82</v>
+        <v>222.35</v>
       </c>
       <c r="E19" t="n">
-        <v>9.359999999999999</v>
+        <v>11.91</v>
+      </c>
+      <c r="F19" t="n">
+        <v>24.94999999999999</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2001年7月</t>
+          <t>2001-10</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>16.4</v>
+        <v>12.62</v>
       </c>
       <c r="C20" t="n">
-        <v>24.81</v>
+        <v>25.5</v>
       </c>
       <c r="D20" t="n">
-        <v>171.63</v>
+        <v>247.85</v>
       </c>
       <c r="E20" t="n">
-        <v>10.32</v>
+        <v>12.4</v>
+      </c>
+      <c r="F20" t="n">
+        <v>25.5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2001年8月</t>
+          <t>2001-11</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>17.22</v>
+        <v>11.25</v>
       </c>
       <c r="C21" t="n">
-        <v>25.4</v>
+        <v>26.61</v>
       </c>
       <c r="D21" t="n">
-        <v>197.4</v>
+        <v>274.46</v>
       </c>
       <c r="E21" t="n">
-        <v>11.27</v>
+        <v>11.92</v>
+      </c>
+      <c r="F21" t="n">
+        <v>26.60999999999999</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2001年9月</t>
+          <t>2001-12</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>18.71</v>
+        <v>7.77</v>
       </c>
       <c r="C22" t="n">
-        <v>25.48</v>
+        <v>28.56</v>
       </c>
       <c r="D22" t="n">
-        <v>222.35</v>
+        <v>303.44</v>
       </c>
       <c r="E22" t="n">
-        <v>11.91</v>
+        <v>11.5</v>
+      </c>
+      <c r="F22" t="n">
+        <v>28.98000000000002</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2002年10月</t>
+          <t>2002-01</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>4.18</v>
+        <v>17.22</v>
       </c>
       <c r="C23" t="n">
-        <v>26.41</v>
+        <v>29.95</v>
       </c>
       <c r="D23" t="n">
-        <v>266.96</v>
+        <v>29.95</v>
       </c>
       <c r="E23" t="n">
-        <v>7.81</v>
+        <v>17.22</v>
+      </c>
+      <c r="F23" t="n">
+        <v>29.95</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2002年11月</t>
+          <t>2002-02</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>9.130000000000001</v>
+        <v>9.91</v>
       </c>
       <c r="C24" t="n">
-        <v>29.05</v>
+        <v>28.44</v>
       </c>
       <c r="D24" t="n">
-        <v>296.08</v>
+        <v>59.49</v>
       </c>
       <c r="E24" t="n">
-        <v>7.94</v>
+        <v>14.55</v>
+      </c>
+      <c r="F24" t="n">
+        <v>29.54</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2002年12月</t>
+          <t>2002-03</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>7.5</v>
+        <v>13.84</v>
       </c>
       <c r="C25" t="n">
-        <v>30.68</v>
+        <v>27.81</v>
       </c>
       <c r="D25" t="n">
-        <v>326.33</v>
+        <v>85.19</v>
       </c>
       <c r="E25" t="n">
-        <v>7.76</v>
+        <v>12.91</v>
+      </c>
+      <c r="F25" t="n">
+        <v>25.7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2002年1月</t>
+          <t>2002-04</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>17.22</v>
+        <v>12.9073756432247</v>
       </c>
       <c r="C26" t="n">
-        <v>29.95</v>
+        <v>26.33</v>
       </c>
       <c r="D26" t="n">
-        <v>29.95</v>
+        <v>111.51</v>
       </c>
       <c r="E26" t="n">
-        <v>17.22</v>
+        <v>12.9443938012762</v>
+      </c>
+      <c r="F26" t="n">
+        <v>26.32000000000001</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2002年2月</t>
+          <t>2002-05</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>9.91</v>
+        <v>7.19</v>
       </c>
       <c r="C27" t="n">
-        <v>28.44</v>
+        <v>26.7</v>
       </c>
       <c r="D27" t="n">
-        <v>59.49</v>
+        <v>138.22</v>
       </c>
       <c r="E27" t="n">
-        <v>14.55</v>
+        <v>11.83</v>
+      </c>
+      <c r="F27" t="n">
+        <v>26.70999999999999</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2002年3月</t>
+          <t>2002-06</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>13.84</v>
+        <v>-0.24</v>
       </c>
       <c r="C28" t="n">
-        <v>27.81</v>
+        <v>25</v>
       </c>
       <c r="D28" t="n">
-        <v>85.19</v>
+        <v>162.02</v>
       </c>
       <c r="E28" t="n">
-        <v>12.91</v>
+        <v>10.48</v>
+      </c>
+      <c r="F28" t="n">
+        <v>23.80000000000001</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2002年4月</t>
+          <t>2002-07</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>12.9073756432247</v>
+        <v>6.2</v>
       </c>
       <c r="C29" t="n">
-        <v>26.33</v>
+        <v>26.37</v>
       </c>
       <c r="D29" t="n">
-        <v>111.51</v>
+        <v>188.4</v>
       </c>
       <c r="E29" t="n">
-        <v>12.9443938012762</v>
+        <v>9.869999999999999</v>
+      </c>
+      <c r="F29" t="n">
+        <v>26.38</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2002年5月</t>
+          <t>2002-08</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>7.19</v>
+        <v>5.18</v>
       </c>
       <c r="C30" t="n">
-        <v>26.7</v>
+        <v>26.38</v>
       </c>
       <c r="D30" t="n">
-        <v>138.22</v>
+        <v>214.76</v>
       </c>
       <c r="E30" t="n">
-        <v>11.83</v>
+        <v>9.279999999999999</v>
+      </c>
+      <c r="F30" t="n">
+        <v>26.35999999999999</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2002年6月</t>
+          <t>2002-09</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-0.24</v>
+        <v>0.31</v>
       </c>
       <c r="C31" t="n">
-        <v>25</v>
+        <v>25.83</v>
       </c>
       <c r="D31" t="n">
-        <v>162.02</v>
+        <v>240.68</v>
       </c>
       <c r="E31" t="n">
-        <v>10.48</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="F31" t="n">
+        <v>25.92000000000002</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2002年7月</t>
+          <t>2002-10</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>6.2</v>
+        <v>4.18</v>
       </c>
       <c r="C32" t="n">
-        <v>26.37</v>
+        <v>26.41</v>
       </c>
       <c r="D32" t="n">
-        <v>188.4</v>
+        <v>266.96</v>
       </c>
       <c r="E32" t="n">
-        <v>9.869999999999999</v>
+        <v>7.81</v>
+      </c>
+      <c r="F32" t="n">
+        <v>26.27999999999997</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2002年8月</t>
+          <t>2002-11</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>5.18</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>26.38</v>
+        <v>29.05</v>
       </c>
       <c r="D33" t="n">
-        <v>214.76</v>
+        <v>296.08</v>
       </c>
       <c r="E33" t="n">
-        <v>9.279999999999999</v>
+        <v>7.94</v>
+      </c>
+      <c r="F33" t="n">
+        <v>29.12</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2002年9月</t>
+          <t>2002-12</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.31</v>
+        <v>7.5</v>
       </c>
       <c r="C34" t="n">
-        <v>25.83</v>
+        <v>30.68</v>
       </c>
       <c r="D34" t="n">
-        <v>240.68</v>
+        <v>326.33</v>
       </c>
       <c r="E34" t="n">
-        <v>8.300000000000001</v>
+        <v>7.76</v>
+      </c>
+      <c r="F34" t="n">
+        <v>30.25</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2003年10月</t>
+          <t>2003-01</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>14.63</v>
+        <v>6.22</v>
       </c>
       <c r="C35" t="n">
-        <v>29.39</v>
+        <v>32.09</v>
       </c>
       <c r="D35" t="n">
-        <v>278.36</v>
+        <v>32.09</v>
       </c>
       <c r="E35" t="n">
-        <v>6.84</v>
+        <v>6.22</v>
+      </c>
+      <c r="F35" t="n">
+        <v>32.09</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2003年11月</t>
+          <t>2003-02</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3.72</v>
+        <v>1.43</v>
       </c>
       <c r="C36" t="n">
-        <v>28.74</v>
+        <v>27.59</v>
       </c>
       <c r="D36" t="n">
-        <v>307.12</v>
+        <v>59.5</v>
       </c>
       <c r="E36" t="n">
-        <v>6.55</v>
+        <v>4.35</v>
+      </c>
+      <c r="F36" t="n">
+        <v>27.41</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2003年12月</t>
+          <t>2003-03</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>7.44</v>
+        <v>7.31</v>
       </c>
       <c r="C37" t="n">
-        <v>33.51</v>
+        <v>29.05</v>
       </c>
       <c r="D37" t="n">
-        <v>341.28</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="E37" t="n">
-        <v>6.84</v>
+        <v>4.94</v>
+      </c>
+      <c r="F37" t="n">
+        <v>26.90000000000001</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2003年1月</t>
+          <t>2003-04</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>6.22</v>
+        <v>7.22</v>
       </c>
       <c r="C38" t="n">
-        <v>32.09</v>
+        <v>27.34</v>
       </c>
       <c r="D38" t="n">
-        <v>32.09</v>
+        <v>113.77</v>
       </c>
       <c r="E38" t="n">
-        <v>6.22</v>
+        <v>5.51</v>
+      </c>
+      <c r="F38" t="n">
+        <v>27.36999999999999</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2003年2月</t>
+          <t>2003-05</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1.43</v>
+        <v>5.91</v>
       </c>
       <c r="C39" t="n">
-        <v>27.59</v>
+        <v>27.41</v>
       </c>
       <c r="D39" t="n">
-        <v>59.5</v>
+        <v>141.09</v>
       </c>
       <c r="E39" t="n">
-        <v>4.35</v>
+        <v>5.53</v>
+      </c>
+      <c r="F39" t="n">
+        <v>27.32000000000001</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2003年3月</t>
+          <t>2003-06</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>7.31</v>
+        <v>8.08</v>
       </c>
       <c r="C40" t="n">
-        <v>29.05</v>
+        <v>26.35</v>
       </c>
       <c r="D40" t="n">
-        <v>86.40000000000001</v>
+        <v>167.45</v>
       </c>
       <c r="E40" t="n">
-        <v>4.94</v>
+        <v>5.93</v>
+      </c>
+      <c r="F40" t="n">
+        <v>26.35999999999999</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2003年4月</t>
+          <t>2003-07</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>7.22</v>
+        <v>6</v>
       </c>
       <c r="C41" t="n">
-        <v>27.34</v>
+        <v>27.38</v>
       </c>
       <c r="D41" t="n">
-        <v>113.77</v>
+        <v>194.81</v>
       </c>
       <c r="E41" t="n">
-        <v>5.51</v>
+        <v>5.94</v>
+      </c>
+      <c r="F41" t="n">
+        <v>27.36000000000001</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2003年5月</t>
+          <t>2003-08</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>5.91</v>
+        <v>3.45</v>
       </c>
       <c r="C42" t="n">
-        <v>27.41</v>
+        <v>26.95</v>
       </c>
       <c r="D42" t="n">
-        <v>141.09</v>
+        <v>221.76</v>
       </c>
       <c r="E42" t="n">
-        <v>5.53</v>
+        <v>5.62</v>
+      </c>
+      <c r="F42" t="n">
+        <v>26.94999999999999</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2003年6月</t>
+          <t>2003-09</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>8.08</v>
+        <v>9.16</v>
       </c>
       <c r="C43" t="n">
-        <v>26.35</v>
+        <v>27.4</v>
       </c>
       <c r="D43" t="n">
-        <v>167.45</v>
+        <v>249</v>
       </c>
       <c r="E43" t="n">
-        <v>5.93</v>
+        <v>5.97</v>
+      </c>
+      <c r="F43" t="n">
+        <v>27.24000000000001</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2003年7月</t>
+          <t>2003-10</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>6</v>
+        <v>14.63</v>
       </c>
       <c r="C44" t="n">
-        <v>27.38</v>
+        <v>29.39</v>
       </c>
       <c r="D44" t="n">
-        <v>194.81</v>
+        <v>278.36</v>
       </c>
       <c r="E44" t="n">
-        <v>5.94</v>
+        <v>6.84</v>
+      </c>
+      <c r="F44" t="n">
+        <v>29.36000000000001</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2003年8月</t>
+          <t>2003-11</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3.45</v>
+        <v>3.72</v>
       </c>
       <c r="C45" t="n">
-        <v>26.95</v>
+        <v>28.74</v>
       </c>
       <c r="D45" t="n">
-        <v>221.76</v>
+        <v>307.12</v>
       </c>
       <c r="E45" t="n">
-        <v>5.62</v>
+        <v>6.55</v>
+      </c>
+      <c r="F45" t="n">
+        <v>28.75999999999999</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2003年9月</t>
+          <t>2003-12</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>9.16</v>
+        <v>7.44</v>
       </c>
       <c r="C46" t="n">
-        <v>27.4</v>
+        <v>33.51</v>
       </c>
       <c r="D46" t="n">
-        <v>249</v>
+        <v>341.28</v>
       </c>
       <c r="E46" t="n">
-        <v>5.97</v>
+        <v>6.84</v>
+      </c>
+      <c r="F46" t="n">
+        <v>34.15999999999997</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2004年10月</t>
+          <t>2004-01</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>22.3</v>
+        <v>12.1</v>
       </c>
       <c r="C47" t="n">
-        <v>35.85</v>
+        <v>34.35</v>
       </c>
       <c r="D47" t="n">
-        <v>329.13</v>
+        <v>34.35</v>
       </c>
       <c r="E47" t="n">
-        <v>18.1</v>
+        <v>12.1</v>
+      </c>
+      <c r="F47" t="n">
+        <v>34.35</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2004年11月</t>
+          <t>2004-02</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>23.9</v>
+        <v>25.6</v>
       </c>
       <c r="C48" t="n">
-        <v>37.32</v>
+        <v>33.67</v>
       </c>
       <c r="D48" t="n">
-        <v>366.8</v>
+        <v>67.37</v>
       </c>
       <c r="E48" t="n">
-        <v>18.7</v>
+        <v>17.7</v>
+      </c>
+      <c r="F48" t="n">
+        <v>33.02</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2004年12月</t>
+          <t>2004-03</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>18.8</v>
+        <v>13.1</v>
       </c>
       <c r="C49" t="n">
-        <v>40.83</v>
+        <v>33.67</v>
       </c>
       <c r="D49" t="n">
-        <v>407.69</v>
+        <v>100.87</v>
       </c>
       <c r="E49" t="n">
-        <v>18.5</v>
+        <v>16</v>
+      </c>
+      <c r="F49" t="n">
+        <v>33.5</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2004年1月</t>
+          <t>2004-04</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>12.1</v>
+        <v>13.4</v>
       </c>
       <c r="C50" t="n">
-        <v>34.35</v>
+        <v>31.21</v>
       </c>
       <c r="D50" t="n">
-        <v>34.35</v>
+        <v>132.06</v>
       </c>
       <c r="E50" t="n">
-        <v>12.1</v>
+        <v>15.4</v>
+      </c>
+      <c r="F50" t="n">
+        <v>31.19</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2004年2月</t>
+          <t>2004-05</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>25.6</v>
+        <v>17.3</v>
       </c>
       <c r="C51" t="n">
-        <v>33.67</v>
+        <v>32.49</v>
       </c>
       <c r="D51" t="n">
-        <v>67.37</v>
+        <v>164.52</v>
       </c>
       <c r="E51" t="n">
-        <v>17.7</v>
+        <v>15.7</v>
+      </c>
+      <c r="F51" t="n">
+        <v>32.46000000000001</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2004年3月</t>
+          <t>2004-06</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>13.1</v>
+        <v>16.3</v>
       </c>
       <c r="C52" t="n">
-        <v>33.67</v>
+        <v>30.86</v>
       </c>
       <c r="D52" t="n">
-        <v>100.87</v>
+        <v>194.91</v>
       </c>
       <c r="E52" t="n">
-        <v>16</v>
+        <v>15.9</v>
+      </c>
+      <c r="F52" t="n">
+        <v>30.38999999999999</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2004年4月</t>
+          <t>2004-07</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>13.4</v>
+        <v>16.5</v>
       </c>
       <c r="C53" t="n">
-        <v>31.21</v>
+        <v>31.95</v>
       </c>
       <c r="D53" t="n">
-        <v>132.06</v>
+        <v>227.23</v>
       </c>
       <c r="E53" t="n">
-        <v>15.4</v>
+        <v>16.2</v>
+      </c>
+      <c r="F53" t="n">
+        <v>32.31999999999999</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2004年5月</t>
+          <t>2004-08</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>17.3</v>
+        <v>22.6</v>
       </c>
       <c r="C54" t="n">
-        <v>32.49</v>
+        <v>33.13</v>
       </c>
       <c r="D54" t="n">
-        <v>164.52</v>
+        <v>260.38</v>
       </c>
       <c r="E54" t="n">
-        <v>15.7</v>
+        <v>17</v>
+      </c>
+      <c r="F54" t="n">
+        <v>33.15000000000001</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2004年6月</t>
+          <t>2004-09</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>16.3</v>
+        <v>18.1</v>
       </c>
       <c r="C55" t="n">
-        <v>30.86</v>
+        <v>32.41</v>
       </c>
       <c r="D55" t="n">
-        <v>194.91</v>
+        <v>294.03</v>
       </c>
       <c r="E55" t="n">
-        <v>15.9</v>
+        <v>17.6</v>
+      </c>
+      <c r="F55" t="n">
+        <v>33.64999999999998</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2004年7月</t>
+          <t>2004-10</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>16.5</v>
+        <v>22.3</v>
       </c>
       <c r="C56" t="n">
-        <v>31.95</v>
+        <v>35.85</v>
       </c>
       <c r="D56" t="n">
-        <v>227.23</v>
+        <v>329.13</v>
       </c>
       <c r="E56" t="n">
-        <v>16.2</v>
+        <v>18.1</v>
+      </c>
+      <c r="F56" t="n">
+        <v>35.10000000000002</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2004年8月</t>
+          <t>2004-11</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>22.6</v>
+        <v>23.9</v>
       </c>
       <c r="C57" t="n">
-        <v>33.13</v>
+        <v>37.32</v>
       </c>
       <c r="D57" t="n">
-        <v>260.38</v>
+        <v>366.8</v>
       </c>
       <c r="E57" t="n">
-        <v>17</v>
+        <v>18.7</v>
+      </c>
+      <c r="F57" t="n">
+        <v>37.67000000000002</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2004年9月</t>
+          <t>2004-12</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>18.1</v>
+        <v>18.8</v>
       </c>
       <c r="C58" t="n">
-        <v>32.41</v>
+        <v>40.83</v>
       </c>
       <c r="D58" t="n">
-        <v>294.03</v>
+        <v>407.69</v>
       </c>
       <c r="E58" t="n">
-        <v>17.6</v>
+        <v>18.5</v>
+      </c>
+      <c r="F58" t="n">
+        <v>40.88999999999999</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2005年10月</t>
+          <t>2005-01</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>17.3</v>
+        <v>27.4</v>
       </c>
       <c r="C59" t="n">
-        <v>42.55</v>
+        <v>44.96</v>
       </c>
       <c r="D59" t="n">
-        <v>398.08</v>
+        <v>44.96</v>
       </c>
       <c r="E59" t="n">
-        <v>19.3</v>
+        <v>27.4</v>
+      </c>
+      <c r="F59" t="n">
+        <v>44.96</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2005年11月</t>
+          <t>2005-02</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>35.4</v>
+        <v>8.6</v>
       </c>
       <c r="C60" t="n">
-        <v>47.54</v>
+        <v>37.79</v>
       </c>
       <c r="D60" t="n">
-        <v>445.66</v>
+        <v>80.41</v>
       </c>
       <c r="E60" t="n">
-        <v>20.8</v>
+        <v>15.3</v>
+      </c>
+      <c r="F60" t="n">
+        <v>35.45</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2005年12月</t>
+          <t>2005-03</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>31.1</v>
+        <v>20.8</v>
       </c>
       <c r="C61" t="n">
-        <v>53.91</v>
+        <v>41.28</v>
       </c>
       <c r="D61" t="n">
-        <v>499.53</v>
+        <v>122.53</v>
       </c>
       <c r="E61" t="n">
-        <v>21.9</v>
+        <v>17.4</v>
+      </c>
+      <c r="F61" t="n">
+        <v>42.12</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2005年1月</t>
+          <t>2005-04</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>27.4</v>
+        <v>21.7</v>
       </c>
       <c r="C62" t="n">
-        <v>44.96</v>
+        <v>39.27</v>
       </c>
       <c r="D62" t="n">
-        <v>44.96</v>
+        <v>160.69</v>
       </c>
       <c r="E62" t="n">
-        <v>27.4</v>
+        <v>18.5</v>
+      </c>
+      <c r="F62" t="n">
+        <v>38.16</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2005年2月</t>
+          <t>2005-05</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>8.6</v>
+        <v>21.9</v>
       </c>
       <c r="C63" t="n">
-        <v>37.79</v>
+        <v>39.98</v>
       </c>
       <c r="D63" t="n">
-        <v>80.41</v>
+        <v>200.72</v>
       </c>
       <c r="E63" t="n">
-        <v>15.3</v>
+        <v>19.2</v>
+      </c>
+      <c r="F63" t="n">
+        <v>40.03</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2005年3月</t>
+          <t>2005-06</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>20.8</v>
+        <v>22.3</v>
       </c>
       <c r="C64" t="n">
-        <v>41.28</v>
+        <v>38.18</v>
       </c>
       <c r="D64" t="n">
-        <v>122.53</v>
+        <v>238.53</v>
       </c>
       <c r="E64" t="n">
-        <v>17.4</v>
+        <v>19.7</v>
+      </c>
+      <c r="F64" t="n">
+        <v>37.81</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2005年4月</t>
+          <t>2005-07</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>21.7</v>
+        <v>19.2</v>
       </c>
       <c r="C65" t="n">
-        <v>39.27</v>
+        <v>39.48</v>
       </c>
       <c r="D65" t="n">
-        <v>160.69</v>
+        <v>278.34</v>
       </c>
       <c r="E65" t="n">
-        <v>18.5</v>
+        <v>19.8</v>
+      </c>
+      <c r="F65" t="n">
+        <v>39.80999999999997</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2005年5月</t>
+          <t>2005-08</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>21.9</v>
+        <v>20.8</v>
       </c>
       <c r="C66" t="n">
-        <v>39.98</v>
+        <v>40.55</v>
       </c>
       <c r="D66" t="n">
-        <v>200.72</v>
+        <v>318.92</v>
       </c>
       <c r="E66" t="n">
-        <v>19.2</v>
+        <v>19.9</v>
+      </c>
+      <c r="F66" t="n">
+        <v>40.58000000000004</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2005年6月</t>
+          <t>2005-09</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>22.3</v>
+        <v>21.4</v>
       </c>
       <c r="C67" t="n">
-        <v>38.18</v>
+        <v>39.41</v>
       </c>
       <c r="D67" t="n">
-        <v>238.53</v>
+        <v>358.3</v>
       </c>
       <c r="E67" t="n">
-        <v>19.7</v>
+        <v>20.1</v>
+      </c>
+      <c r="F67" t="n">
+        <v>39.38</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2005年7月</t>
+          <t>2005-10</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>19.2</v>
+        <v>17.3</v>
       </c>
       <c r="C68" t="n">
-        <v>39.48</v>
+        <v>42.55</v>
       </c>
       <c r="D68" t="n">
-        <v>278.34</v>
+        <v>398.08</v>
       </c>
       <c r="E68" t="n">
-        <v>19.8</v>
+        <v>19.3</v>
+      </c>
+      <c r="F68" t="n">
+        <v>39.77999999999997</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2005年8月</t>
+          <t>2005-11</t>
         </is>
       </c>
       <c r="B69" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="C69" t="n">
+        <v>47.54</v>
+      </c>
+      <c r="D69" t="n">
+        <v>445.66</v>
+      </c>
+      <c r="E69" t="n">
         <v>20.8</v>
       </c>
-      <c r="C69" t="n">
-        <v>40.55</v>
-      </c>
-      <c r="D69" t="n">
-        <v>318.92</v>
-      </c>
-      <c r="E69" t="n">
-        <v>19.9</v>
+      <c r="F69" t="n">
+        <v>47.58000000000004</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2005年9月</t>
+          <t>2005-12</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>21.4</v>
+        <v>31.1</v>
       </c>
       <c r="C70" t="n">
-        <v>39.41</v>
+        <v>53.91</v>
       </c>
       <c r="D70" t="n">
-        <v>358.3</v>
+        <v>499.53</v>
       </c>
       <c r="E70" t="n">
-        <v>20.1</v>
+        <v>21.9</v>
+      </c>
+      <c r="F70" t="n">
+        <v>53.86999999999995</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2006年10月</t>
+          <t>2006-01</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>16.4</v>
+        <v>29.8486157127904</v>
       </c>
       <c r="C71" t="n">
-        <v>48.79</v>
+        <v>54.054453</v>
       </c>
       <c r="D71" t="n">
-        <v>479.59</v>
+        <v>54.054453</v>
       </c>
       <c r="E71" t="n">
-        <v>20.8</v>
+        <v>29.8486157127904</v>
+      </c>
+      <c r="F71" t="n">
+        <v>54.054453</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2006年11月</t>
+          <t>2006-02</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>15.1</v>
+        <v>41.1</v>
       </c>
       <c r="C72" t="n">
-        <v>51.41</v>
+        <v>52.01</v>
       </c>
       <c r="D72" t="n">
-        <v>530.97</v>
+        <v>106.06</v>
       </c>
       <c r="E72" t="n">
-        <v>20.3</v>
+        <v>35.1</v>
+      </c>
+      <c r="F72" t="n">
+        <v>52.005547</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2006年12月</t>
+          <t>2006-03</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>10.5</v>
+        <v>24.5</v>
       </c>
       <c r="C73" t="n">
-        <v>54.02</v>
+        <v>52.93</v>
       </c>
       <c r="D73" t="n">
-        <v>585.53</v>
+        <v>159.21</v>
       </c>
       <c r="E73" t="n">
-        <v>19.2</v>
+        <v>31.3</v>
+      </c>
+      <c r="F73" t="n">
+        <v>53.15000000000001</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>2006年1月</t>
+          <t>2006-04</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>29.8486157127904</v>
+        <v>21.383591463879</v>
       </c>
       <c r="C74" t="n">
-        <v>54.054453</v>
+        <v>46.047811</v>
       </c>
       <c r="D74" t="n">
-        <v>54.054453</v>
+        <v>194.706932</v>
       </c>
       <c r="E74" t="n">
-        <v>29.8486157127904</v>
+        <v>25.8913101014397</v>
+      </c>
+      <c r="F74" t="n">
+        <v>35.49693199999999</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>2006年2月</t>
+          <t>2006-05</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>41.1</v>
+        <v>18.3</v>
       </c>
       <c r="C75" t="n">
-        <v>52.01</v>
+        <v>46.07</v>
       </c>
       <c r="D75" t="n">
-        <v>106.06</v>
+        <v>240.76</v>
       </c>
       <c r="E75" t="n">
-        <v>35.1</v>
+        <v>24.3</v>
+      </c>
+      <c r="F75" t="n">
+        <v>46.053068</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>2006年3月</t>
+          <t>2006-06</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>24.5</v>
+        <v>21.1</v>
       </c>
       <c r="C76" t="n">
-        <v>52.93</v>
+        <v>47.47</v>
       </c>
       <c r="D76" t="n">
-        <v>159.21</v>
+        <v>288.31</v>
       </c>
       <c r="E76" t="n">
-        <v>31.3</v>
+        <v>23.9</v>
+      </c>
+      <c r="F76" t="n">
+        <v>47.55000000000001</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>2006年4月</t>
+          <t>2006-07</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>21.383591463879</v>
+        <v>18.1</v>
       </c>
       <c r="C77" t="n">
-        <v>46.047811</v>
+        <v>47.99</v>
       </c>
       <c r="D77" t="n">
-        <v>194.706932</v>
+        <v>336.35</v>
       </c>
       <c r="E77" t="n">
-        <v>25.8913101014397</v>
+        <v>23</v>
+      </c>
+      <c r="F77" t="n">
+        <v>48.04000000000002</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>2006年5月</t>
+          <t>2006-08</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>18.3</v>
+        <v>15.3</v>
       </c>
       <c r="C78" t="n">
-        <v>46.07</v>
+        <v>48.15</v>
       </c>
       <c r="D78" t="n">
-        <v>240.76</v>
+        <v>384.46</v>
       </c>
       <c r="E78" t="n">
-        <v>24.3</v>
+        <v>22.1</v>
+      </c>
+      <c r="F78" t="n">
+        <v>48.10999999999996</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>2006年6月</t>
+          <t>2006-09</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>21.1</v>
+        <v>15.4</v>
       </c>
       <c r="C79" t="n">
-        <v>47.47</v>
+        <v>46.35</v>
       </c>
       <c r="D79" t="n">
-        <v>288.31</v>
+        <v>430.81</v>
       </c>
       <c r="E79" t="n">
-        <v>23.9</v>
+        <v>21.3</v>
+      </c>
+      <c r="F79" t="n">
+        <v>46.35000000000002</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>2006年7月</t>
+          <t>2006-10</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>18.1</v>
+        <v>16.4</v>
       </c>
       <c r="C80" t="n">
-        <v>47.99</v>
+        <v>48.79</v>
       </c>
       <c r="D80" t="n">
-        <v>336.35</v>
+        <v>479.59</v>
       </c>
       <c r="E80" t="n">
-        <v>23</v>
+        <v>20.8</v>
+      </c>
+      <c r="F80" t="n">
+        <v>48.77999999999997</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>2006年8月</t>
+          <t>2006-11</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="C81" t="n">
-        <v>48.15</v>
+        <v>51.41</v>
       </c>
       <c r="D81" t="n">
-        <v>384.46</v>
+        <v>530.97</v>
       </c>
       <c r="E81" t="n">
-        <v>22.1</v>
+        <v>20.3</v>
+      </c>
+      <c r="F81" t="n">
+        <v>51.38000000000005</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>2006年9月</t>
+          <t>2006-12</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>15.4</v>
+        <v>10.5</v>
       </c>
       <c r="C82" t="n">
-        <v>46.35</v>
+        <v>54.02</v>
       </c>
       <c r="D82" t="n">
-        <v>430.81</v>
+        <v>585.53</v>
       </c>
       <c r="E82" t="n">
-        <v>21.3</v>
+        <v>19.2</v>
+      </c>
+      <c r="F82" t="n">
+        <v>54.55999999999995</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>2007年10月</t>
+          <t>2007-01</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>24.3</v>
+        <v>17.8729431088884</v>
       </c>
       <c r="C83" t="n">
-        <v>60.27</v>
+        <v>58.064022</v>
       </c>
       <c r="D83" t="n">
-        <v>560.91</v>
+        <v>58.064022</v>
       </c>
       <c r="E83" t="n">
-        <v>20.1</v>
+        <v>17.8729431088884</v>
+      </c>
+      <c r="F83" t="n">
+        <v>58.064022</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>2007年11月</t>
+          <t>2007-02</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>16.4</v>
+        <v>7.9</v>
       </c>
       <c r="C84" t="n">
-        <v>59.52</v>
+        <v>57.95</v>
       </c>
       <c r="D84" t="n">
-        <v>620.38</v>
+        <v>115.99</v>
       </c>
       <c r="E84" t="n">
-        <v>19.7</v>
+        <v>12.7</v>
+      </c>
+      <c r="F84" t="n">
+        <v>57.92597799999999</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>2007年12月</t>
+          <t>2007-03</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>9.9</v>
+        <v>16.4</v>
       </c>
       <c r="C85" t="n">
-        <v>58.65</v>
+        <v>56.69</v>
       </c>
       <c r="D85" t="n">
-        <v>666.1</v>
+        <v>167.13</v>
       </c>
       <c r="E85" t="n">
-        <v>18.3</v>
+        <v>14.7</v>
+      </c>
+      <c r="F85" t="n">
+        <v>51.14</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>2007年1月</t>
+          <t>2007-04</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>17.8729431088884</v>
+        <v>16.7</v>
       </c>
       <c r="C86" t="n">
-        <v>58.064022</v>
+        <v>53.49</v>
       </c>
       <c r="D86" t="n">
-        <v>58.064022</v>
+        <v>220.52</v>
       </c>
       <c r="E86" t="n">
-        <v>17.8729431088884</v>
+        <v>15.1</v>
+      </c>
+      <c r="F86" t="n">
+        <v>53.39000000000001</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>2007年2月</t>
+          <t>2007-05</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>7.9</v>
+        <v>26.3</v>
       </c>
       <c r="C87" t="n">
-        <v>57.95</v>
+        <v>57.44</v>
       </c>
       <c r="D87" t="n">
-        <v>115.99</v>
+        <v>275.78</v>
       </c>
       <c r="E87" t="n">
-        <v>12.7</v>
+        <v>16.1</v>
+      </c>
+      <c r="F87" t="n">
+        <v>55.25999999999996</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>2007年3月</t>
+          <t>2007-06</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>16.4</v>
+        <v>21.7</v>
       </c>
       <c r="C88" t="n">
-        <v>56.69</v>
+        <v>54.78</v>
       </c>
       <c r="D88" t="n">
-        <v>167.13</v>
+        <v>331.3</v>
       </c>
       <c r="E88" t="n">
-        <v>14.7</v>
+        <v>17.2</v>
+      </c>
+      <c r="F88" t="n">
+        <v>55.52000000000004</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>2007年4月</t>
+          <t>2007-07</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>16.7</v>
+        <v>19.8</v>
       </c>
       <c r="C89" t="n">
-        <v>53.49</v>
+        <v>55.4</v>
       </c>
       <c r="D89" t="n">
-        <v>220.52</v>
+        <v>385.55</v>
       </c>
       <c r="E89" t="n">
-        <v>15.1</v>
+        <v>17.1</v>
+      </c>
+      <c r="F89" t="n">
+        <v>54.25</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>2007年5月</t>
+          <t>2007-08</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>26.3</v>
+        <v>24.9</v>
       </c>
       <c r="C90" t="n">
-        <v>57.44</v>
+        <v>57.53</v>
       </c>
       <c r="D90" t="n">
-        <v>275.78</v>
+        <v>443.08</v>
       </c>
       <c r="E90" t="n">
-        <v>16.1</v>
+        <v>18.5</v>
+      </c>
+      <c r="F90" t="n">
+        <v>57.52999999999997</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>2007年6月</t>
+          <t>2007-09</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>21.7</v>
+        <v>29.9</v>
       </c>
       <c r="C91" t="n">
-        <v>54.78</v>
+        <v>57.93</v>
       </c>
       <c r="D91" t="n">
-        <v>331.3</v>
+        <v>501.39</v>
       </c>
       <c r="E91" t="n">
-        <v>17.2</v>
+        <v>19.8</v>
+      </c>
+      <c r="F91" t="n">
+        <v>58.31</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>2007年7月</t>
+          <t>2007-10</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>19.8</v>
+        <v>24.3</v>
       </c>
       <c r="C92" t="n">
-        <v>55.4</v>
+        <v>60.27</v>
       </c>
       <c r="D92" t="n">
-        <v>385.55</v>
+        <v>560.91</v>
       </c>
       <c r="E92" t="n">
-        <v>17.1</v>
+        <v>20.1</v>
+      </c>
+      <c r="F92" t="n">
+        <v>59.51999999999998</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>2007年8月</t>
+          <t>2007-11</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>24.9</v>
+        <v>16.4</v>
       </c>
       <c r="C93" t="n">
-        <v>57.53</v>
+        <v>59.52</v>
       </c>
       <c r="D93" t="n">
-        <v>443.08</v>
+        <v>620.38</v>
       </c>
       <c r="E93" t="n">
-        <v>18.5</v>
+        <v>19.7</v>
+      </c>
+      <c r="F93" t="n">
+        <v>59.47000000000003</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>2007年9月</t>
+          <t>2007-12</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>29.9</v>
+        <v>9.9</v>
       </c>
       <c r="C94" t="n">
-        <v>57.93</v>
+        <v>58.65</v>
       </c>
       <c r="D94" t="n">
-        <v>501.39</v>
+        <v>666.1</v>
       </c>
       <c r="E94" t="n">
-        <v>19.8</v>
+        <v>18.3</v>
+      </c>
+      <c r="F94" t="n">
+        <v>45.72000000000003</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>2008年10月</t>
+          <t>2008-01</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>4.2</v>
+        <v>16.8252828647505</v>
       </c>
       <c r="C95" t="n">
-        <v>62.62</v>
+        <v>69.12</v>
       </c>
       <c r="D95" t="n">
-        <v>625.67</v>
+        <v>69.12</v>
       </c>
       <c r="E95" t="n">
-        <v>11.8</v>
+        <v>16.8252828647505</v>
+      </c>
+      <c r="F95" t="n">
+        <v>69.12</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>2008年11月</t>
+          <t>2008-02</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>16.3</v>
+        <v>24.1</v>
       </c>
       <c r="C96" t="n">
-        <v>68.31999999999999</v>
+        <v>65.56999999999999</v>
       </c>
       <c r="D96" t="n">
-        <v>691.99</v>
+        <v>134.69</v>
       </c>
       <c r="E96" t="n">
-        <v>12.1</v>
+        <v>20.3</v>
+      </c>
+      <c r="F96" t="n">
+        <v>65.56999999999999</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>2008年12月</t>
+          <t>2008-03</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>9.1</v>
+        <v>15.8</v>
       </c>
       <c r="C97" t="n">
-        <v>66.48999999999999</v>
+        <v>73.04000000000001</v>
       </c>
       <c r="D97" t="n">
-        <v>760.8200000000001</v>
+        <v>206.61</v>
       </c>
       <c r="E97" t="n">
-        <v>12.3</v>
+        <v>18.6</v>
+      </c>
+      <c r="F97" t="n">
+        <v>71.92000000000002</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>2008年1月</t>
+          <t>2008-04</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>16.8252828647505</v>
+        <v>13.4</v>
       </c>
       <c r="C98" t="n">
-        <v>69.12</v>
+        <v>61.71</v>
       </c>
       <c r="D98" t="n">
-        <v>69.12</v>
+        <v>257.43</v>
       </c>
       <c r="E98" t="n">
-        <v>16.8252828647505</v>
+        <v>15.9</v>
+      </c>
+      <c r="F98" t="n">
+        <v>50.81999999999999</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>2008年2月</t>
+          <t>2008-05</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>24.1</v>
+        <v>12</v>
       </c>
       <c r="C99" t="n">
-        <v>65.56999999999999</v>
+        <v>73.03</v>
       </c>
       <c r="D99" t="n">
-        <v>134.69</v>
+        <v>350.88</v>
       </c>
       <c r="E99" t="n">
-        <v>20.3</v>
+        <v>17.7</v>
+      </c>
+      <c r="F99" t="n">
+        <v>93.44999999999999</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>2008年3月</t>
+          <t>2008-06</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>15.8</v>
+        <v>14.5</v>
       </c>
       <c r="C100" t="n">
-        <v>73.04000000000001</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="D100" t="n">
-        <v>206.61</v>
+        <v>430.18</v>
       </c>
       <c r="E100" t="n">
-        <v>18.6</v>
+        <v>17.3</v>
+      </c>
+      <c r="F100" t="n">
+        <v>79.30000000000001</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>2008年4月</t>
+          <t>2008-07</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>13.4</v>
+        <v>11.5</v>
       </c>
       <c r="C101" t="n">
-        <v>61.71</v>
+        <v>61.85</v>
       </c>
       <c r="D101" t="n">
-        <v>257.43</v>
+        <v>440.5</v>
       </c>
       <c r="E101" t="n">
-        <v>15.9</v>
+        <v>14.3</v>
+      </c>
+      <c r="F101" t="n">
+        <v>10.31999999999999</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>2008年5月</t>
+          <t>2008-08</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>12</v>
+        <v>10.1</v>
       </c>
       <c r="C102" t="n">
-        <v>73.03</v>
+        <v>63.44</v>
       </c>
       <c r="D102" t="n">
-        <v>350.88</v>
+        <v>503.62</v>
       </c>
       <c r="E102" t="n">
-        <v>17.7</v>
+        <v>13.9</v>
+      </c>
+      <c r="F102" t="n">
+        <v>63.12</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>2008年6月</t>
+          <t>2008-09</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>14.5</v>
+        <v>6.6</v>
       </c>
       <c r="C103" t="n">
-        <v>78.40000000000001</v>
+        <v>61.54</v>
       </c>
       <c r="D103" t="n">
-        <v>430.18</v>
+        <v>565.14</v>
       </c>
       <c r="E103" t="n">
-        <v>17.3</v>
+        <v>13</v>
+      </c>
+      <c r="F103" t="n">
+        <v>61.51999999999998</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>2008年7月</t>
+          <t>2008-10</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>11.5</v>
+        <v>4.2</v>
       </c>
       <c r="C104" t="n">
-        <v>61.85</v>
+        <v>62.62</v>
       </c>
       <c r="D104" t="n">
-        <v>440.5</v>
+        <v>625.67</v>
       </c>
       <c r="E104" t="n">
-        <v>14.3</v>
+        <v>11.8</v>
+      </c>
+      <c r="F104" t="n">
+        <v>60.52999999999997</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>2008年8月</t>
+          <t>2008-11</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>10.1</v>
+        <v>16.3</v>
       </c>
       <c r="C105" t="n">
-        <v>63.44</v>
+        <v>68.31999999999999</v>
       </c>
       <c r="D105" t="n">
-        <v>503.62</v>
+        <v>691.99</v>
       </c>
       <c r="E105" t="n">
-        <v>13.9</v>
+        <v>12.1</v>
+      </c>
+      <c r="F105" t="n">
+        <v>66.32000000000005</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>2008年9月</t>
+          <t>2008-12</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>6.6</v>
+        <v>9.1</v>
       </c>
       <c r="C106" t="n">
-        <v>61.54</v>
+        <v>66.48999999999999</v>
       </c>
       <c r="D106" t="n">
-        <v>565.14</v>
+        <v>760.8200000000001</v>
       </c>
       <c r="E106" t="n">
-        <v>13</v>
+        <v>12.3</v>
+      </c>
+      <c r="F106" t="n">
+        <v>68.83000000000004</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>2009年10月</t>
+          <t>2009-01</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>10.2</v>
+        <v>6.42663375317115</v>
       </c>
       <c r="C107" t="n">
-        <v>71.84999999999999</v>
+        <v>73.50364399999999</v>
       </c>
       <c r="D107" t="n">
-        <v>694.16</v>
+        <v>73.50364399999999</v>
       </c>
       <c r="E107" t="n">
-        <v>7.5</v>
+        <v>6.42663375317115</v>
+      </c>
+      <c r="F107" t="n">
+        <v>73.50364399999999</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>2009年11月</t>
+          <t>2009-02</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>11.6</v>
+        <v>3.7</v>
       </c>
       <c r="C108" t="n">
-        <v>78.61</v>
+        <v>68.25</v>
       </c>
       <c r="D108" t="n">
-        <v>772.73</v>
+        <v>141.74</v>
       </c>
       <c r="E108" t="n">
-        <v>8</v>
+        <v>5.1</v>
+      </c>
+      <c r="F108" t="n">
+        <v>68.23635600000001</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>2009年12月</t>
+          <t>2009-03</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>8.300000000000001</v>
+        <v>11.3</v>
       </c>
       <c r="C109" t="n">
-        <v>73.61</v>
+        <v>73.52</v>
       </c>
       <c r="D109" t="n">
-        <v>829.92</v>
+        <v>216.28</v>
       </c>
       <c r="E109" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
+      </c>
+      <c r="F109" t="n">
+        <v>74.53999999999999</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>2009年1月</t>
+          <t>2009-04</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>6.42663375317115</v>
+        <v>6.9</v>
       </c>
       <c r="C110" t="n">
-        <v>73.50364399999999</v>
+        <v>68.75</v>
       </c>
       <c r="D110" t="n">
-        <v>73.50364399999999</v>
+        <v>285.79</v>
       </c>
       <c r="E110" t="n">
-        <v>6.42663375317115</v>
+        <v>7.4</v>
+      </c>
+      <c r="F110" t="n">
+        <v>69.51000000000002</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>2009年2月</t>
+          <t>2009-05</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>3.7</v>
+        <v>6.9</v>
       </c>
       <c r="C111" t="n">
-        <v>68.25</v>
+        <v>67.20999999999999</v>
       </c>
       <c r="D111" t="n">
-        <v>141.74</v>
+        <v>347.83</v>
       </c>
       <c r="E111" t="n">
-        <v>5.1</v>
+        <v>7</v>
+      </c>
+      <c r="F111" t="n">
+        <v>62.03999999999996</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>2009年3月</t>
+          <t>2009-06</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>11.3</v>
+        <v>8.192339076382281</v>
       </c>
       <c r="C112" t="n">
-        <v>73.52</v>
+        <v>68.267095</v>
       </c>
       <c r="D112" t="n">
-        <v>216.28</v>
+        <v>420.340336</v>
       </c>
       <c r="E112" t="n">
-        <v>7.5</v>
+        <v>7.6222040073183</v>
+      </c>
+      <c r="F112" t="n">
+        <v>72.510336</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>2009年4月</t>
+          <t>2009-07</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>6.9</v>
+        <v>10.5177227081956</v>
       </c>
       <c r="C113" t="n">
-        <v>68.75</v>
+        <v>70.655618</v>
       </c>
       <c r="D113" t="n">
-        <v>285.79</v>
+        <v>491.674855</v>
       </c>
       <c r="E113" t="n">
-        <v>7.4</v>
+        <v>8.191028266319741</v>
+      </c>
+      <c r="F113" t="n">
+        <v>71.334519</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>2009年5月</t>
+          <t>2009-08</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>6.9</v>
+        <v>7.8</v>
       </c>
       <c r="C114" t="n">
-        <v>67.20999999999999</v>
+        <v>71.13</v>
       </c>
       <c r="D114" t="n">
-        <v>347.83</v>
+        <v>562.74</v>
       </c>
       <c r="E114" t="n">
-        <v>7</v>
+        <v>8.1</v>
+      </c>
+      <c r="F114" t="n">
+        <v>71.06514500000003</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>2009年6月</t>
+          <t>2009-09</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>8.192339076382281</v>
+        <v>7.95342346032686</v>
       </c>
       <c r="C115" t="n">
-        <v>68.267095</v>
+        <v>68.831377</v>
       </c>
       <c r="D115" t="n">
-        <v>420.340336</v>
+        <v>631.583259</v>
       </c>
       <c r="E115" t="n">
-        <v>7.6222040073183</v>
+        <v>8.116478983227321</v>
+      </c>
+      <c r="F115" t="n">
+        <v>68.84325899999999</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>2009年7月</t>
+          <t>2009-10</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>10.5177227081956</v>
+        <v>10.2</v>
       </c>
       <c r="C116" t="n">
-        <v>70.655618</v>
+        <v>71.84999999999999</v>
       </c>
       <c r="D116" t="n">
-        <v>491.674855</v>
+        <v>694.16</v>
       </c>
       <c r="E116" t="n">
-        <v>8.191028266319741</v>
+        <v>7.5</v>
+      </c>
+      <c r="F116" t="n">
+        <v>62.57674099999997</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>2009年8月</t>
+          <t>2009-11</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>7.8</v>
+        <v>11.6</v>
       </c>
       <c r="C117" t="n">
-        <v>71.13</v>
+        <v>78.61</v>
       </c>
       <c r="D117" t="n">
-        <v>562.74</v>
+        <v>772.73</v>
       </c>
       <c r="E117" t="n">
-        <v>8.1</v>
+        <v>8</v>
+      </c>
+      <c r="F117" t="n">
+        <v>78.57000000000005</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>2009年9月</t>
+          <t>2009-12</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>7.95342346032686</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C118" t="n">
-        <v>68.831377</v>
+        <v>73.61</v>
       </c>
       <c r="D118" t="n">
-        <v>631.583259</v>
+        <v>829.92</v>
       </c>
       <c r="E118" t="n">
-        <v>8.116478983227321</v>
+        <v>7.7</v>
+      </c>
+      <c r="F118" t="n">
+        <v>57.18999999999994</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>2010年10月</t>
+          <t>2010-01</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>9.43546015134757</v>
+        <v>12.9427792915531</v>
       </c>
       <c r="C119" t="n">
-        <v>78.827476</v>
+        <v>82.866578</v>
       </c>
       <c r="D119" t="n">
-        <v>775.1019250000001</v>
+        <v>82.866578</v>
       </c>
       <c r="E119" t="n">
-        <v>11.9046096176314</v>
+        <v>12.9427792915531</v>
+      </c>
+      <c r="F119" t="n">
+        <v>82.866578</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>2010年11月</t>
+          <t>2010-02</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>5.8</v>
+        <v>12.1865767966489</v>
       </c>
       <c r="C120" t="n">
-        <v>84.2</v>
+        <v>75.829639</v>
       </c>
       <c r="D120" t="n">
-        <v>867.4</v>
+        <v>158.696217</v>
       </c>
       <c r="E120" t="n">
-        <v>11.8</v>
+        <v>12.7303542003969</v>
+      </c>
+      <c r="F120" t="n">
+        <v>75.82963899999999</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>2010年12月</t>
+          <t>2010-03</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>18.7</v>
+        <v>16.2</v>
       </c>
       <c r="C121" t="n">
-        <v>88.40000000000001</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="D121" t="n">
-        <v>944.8</v>
+        <v>241.6</v>
       </c>
       <c r="E121" t="n">
-        <v>12.1</v>
+        <v>13.8</v>
+      </c>
+      <c r="F121" t="n">
+        <v>82.903783</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>2010年1月</t>
+          <t>2010-04</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>12.9427792915531</v>
+        <v>11.7</v>
       </c>
       <c r="C122" t="n">
-        <v>82.866578</v>
+        <v>76.2</v>
       </c>
       <c r="D122" t="n">
-        <v>82.866578</v>
+        <v>318.9</v>
       </c>
       <c r="E122" t="n">
-        <v>12.9427792915531</v>
+        <v>13.1</v>
+      </c>
+      <c r="F122" t="n">
+        <v>77.29999999999998</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>2010年2月</t>
+          <t>2010-05</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>12.1865767966489</v>
+        <v>8.592723090971351</v>
       </c>
       <c r="C123" t="n">
-        <v>75.829639</v>
+        <v>73.451323</v>
       </c>
       <c r="D123" t="n">
-        <v>158.696217</v>
+        <v>392.392985</v>
       </c>
       <c r="E123" t="n">
-        <v>12.7303542003969</v>
+        <v>12.6531837591938</v>
+      </c>
+      <c r="F123" t="n">
+        <v>73.49298500000003</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>2010年3月</t>
+          <t>2010-06</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>16.2</v>
+        <v>5.8</v>
       </c>
       <c r="C124" t="n">
-        <v>83.40000000000001</v>
+        <v>70.8</v>
       </c>
       <c r="D124" t="n">
-        <v>241.6</v>
+        <v>459.3</v>
       </c>
       <c r="E124" t="n">
-        <v>13.8</v>
+        <v>10.8</v>
+      </c>
+      <c r="F124" t="n">
+        <v>66.907015</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>2010年4月</t>
+          <t>2010-07</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>11.7</v>
+        <v>3.6</v>
       </c>
       <c r="C125" t="n">
-        <v>76.2</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="D125" t="n">
-        <v>318.9</v>
+        <v>532</v>
       </c>
       <c r="E125" t="n">
-        <v>13.1</v>
+        <v>9.800000000000001</v>
+      </c>
+      <c r="F125" t="n">
+        <v>72.69999999999999</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>2010年5月</t>
+          <t>2010-08</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>8.592723090971351</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C126" t="n">
-        <v>73.451323</v>
+        <v>76</v>
       </c>
       <c r="D126" t="n">
-        <v>392.392985</v>
+        <v>624.6</v>
       </c>
       <c r="E126" t="n">
-        <v>12.6531837591938</v>
+        <v>12.6</v>
+      </c>
+      <c r="F126" t="n">
+        <v>92.60000000000002</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>2010年6月</t>
+          <t>2010-09</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>5.8</v>
+        <v>8.9</v>
       </c>
       <c r="C127" t="n">
-        <v>70.8</v>
+        <v>73.7</v>
       </c>
       <c r="D127" t="n">
-        <v>459.3</v>
+        <v>698.6</v>
       </c>
       <c r="E127" t="n">
-        <v>10.8</v>
+        <v>12.2</v>
+      </c>
+      <c r="F127" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>2010年7月</t>
+          <t>2010-10</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>3.6</v>
+        <v>9.43546015134757</v>
       </c>
       <c r="C128" t="n">
-        <v>71.90000000000001</v>
+        <v>78.827476</v>
       </c>
       <c r="D128" t="n">
-        <v>532</v>
+        <v>775.1019250000001</v>
       </c>
       <c r="E128" t="n">
-        <v>9.800000000000001</v>
+        <v>11.9046096176314</v>
+      </c>
+      <c r="F128" t="n">
+        <v>76.50192500000003</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>2010年8月</t>
+          <t>2010-11</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>8.300000000000001</v>
+        <v>5.8</v>
       </c>
       <c r="C129" t="n">
-        <v>76</v>
+        <v>84.2</v>
       </c>
       <c r="D129" t="n">
-        <v>624.6</v>
+        <v>867.4</v>
       </c>
       <c r="E129" t="n">
-        <v>12.6</v>
+        <v>11.8</v>
+      </c>
+      <c r="F129" t="n">
+        <v>92.29807499999993</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>2010年9月</t>
+          <t>2010-12</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>8.9</v>
+        <v>18.7</v>
       </c>
       <c r="C130" t="n">
-        <v>73.7</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="D130" t="n">
-        <v>698.6</v>
+        <v>944.8</v>
       </c>
       <c r="E130" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
+      </c>
+      <c r="F130" t="n">
+        <v>77.39999999999998</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>2011年10月</t>
+          <t>2011-01</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>5</v>
+        <v>15.3908196326286</v>
       </c>
       <c r="C131" t="n">
-        <v>83.7</v>
+        <v>97.47854</v>
       </c>
       <c r="D131" t="n">
-        <v>842</v>
+        <v>97.47854</v>
       </c>
       <c r="E131" t="n">
-        <v>7.3</v>
+        <v>15.3908196326286</v>
+      </c>
+      <c r="F131" t="n">
+        <v>97.47854</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>2011年11月</t>
+          <t>2011-02</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>7.7</v>
+        <v>15.1</v>
       </c>
       <c r="C132" t="n">
-        <v>90.5</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="D132" t="n">
-        <v>930.1</v>
+        <v>186.1</v>
       </c>
       <c r="E132" t="n">
-        <v>7.1</v>
+        <v>15.1</v>
+      </c>
+      <c r="F132" t="n">
+        <v>88.62146</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>2011年12月</t>
+          <t>2011-03</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>8.300000000000001</v>
+        <v>6.2</v>
       </c>
       <c r="C133" t="n">
-        <v>98.7</v>
+        <v>88.5</v>
       </c>
       <c r="D133" t="n">
-        <v>1025.3</v>
+        <v>274.3</v>
       </c>
       <c r="E133" t="n">
-        <v>6.9</v>
+        <v>12.1</v>
+      </c>
+      <c r="F133" t="n">
+        <v>88.20000000000002</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>2011年1月</t>
+          <t>2011-04</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>15.3908196326286</v>
+        <v>-0.1</v>
       </c>
       <c r="C134" t="n">
-        <v>97.47854</v>
+        <v>80</v>
       </c>
       <c r="D134" t="n">
-        <v>97.47854</v>
+        <v>354.8</v>
       </c>
       <c r="E134" t="n">
-        <v>15.3908196326286</v>
+        <v>7.3</v>
+      </c>
+      <c r="F134" t="n">
+        <v>80.5</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>2011年2月</t>
+          <t>2011-05</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>15.1</v>
+        <v>5.3</v>
       </c>
       <c r="C135" t="n">
-        <v>88.59999999999999</v>
+        <v>80.8</v>
       </c>
       <c r="D135" t="n">
-        <v>186.1</v>
+        <v>431.6</v>
       </c>
       <c r="E135" t="n">
-        <v>15.1</v>
+        <v>6.7</v>
+      </c>
+      <c r="F135" t="n">
+        <v>76.80000000000001</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>2011年3月</t>
+          <t>2011-06</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>6.2</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C136" t="n">
-        <v>88.5</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="D136" t="n">
-        <v>274.3</v>
+        <v>513.8</v>
       </c>
       <c r="E136" t="n">
-        <v>12.1</v>
+        <v>7.3</v>
+      </c>
+      <c r="F136" t="n">
+        <v>82.19999999999993</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>2011年4月</t>
+          <t>2011-07</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>-0.1</v>
+        <v>10</v>
       </c>
       <c r="C137" t="n">
-        <v>80</v>
+        <v>83.7</v>
       </c>
       <c r="D137" t="n">
-        <v>354.8</v>
+        <v>597.6</v>
       </c>
       <c r="E137" t="n">
-        <v>7.3</v>
+        <v>7.7</v>
+      </c>
+      <c r="F137" t="n">
+        <v>83.80000000000007</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>2011年5月</t>
+          <t>2011-08</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>5.3</v>
+        <v>4.9</v>
       </c>
       <c r="C138" t="n">
         <v>80.8</v>
       </c>
       <c r="D138" t="n">
-        <v>431.6</v>
+        <v>678.9</v>
       </c>
       <c r="E138" t="n">
-        <v>6.7</v>
+        <v>7.5</v>
+      </c>
+      <c r="F138" t="n">
+        <v>81.29999999999995</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>2011年6月</t>
+          <t>2011-09</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>9.699999999999999</v>
+        <v>5.2</v>
       </c>
       <c r="C139" t="n">
-        <v>81.59999999999999</v>
+        <v>78.7</v>
       </c>
       <c r="D139" t="n">
-        <v>513.8</v>
+        <v>762.7</v>
       </c>
       <c r="E139" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
+      </c>
+      <c r="F139" t="n">
+        <v>83.80000000000007</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>2011年7月</t>
+          <t>2011-10</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C140" t="n">
         <v>83.7</v>
       </c>
       <c r="D140" t="n">
-        <v>597.6</v>
+        <v>842</v>
       </c>
       <c r="E140" t="n">
-        <v>7.7</v>
+        <v>7.3</v>
+      </c>
+      <c r="F140" t="n">
+        <v>79.29999999999995</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>2011年8月</t>
+          <t>2011-11</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>4.9</v>
+        <v>7.7</v>
       </c>
       <c r="C141" t="n">
-        <v>80.8</v>
+        <v>90.5</v>
       </c>
       <c r="D141" t="n">
-        <v>678.9</v>
+        <v>930.1</v>
       </c>
       <c r="E141" t="n">
-        <v>7.5</v>
+        <v>7.1</v>
+      </c>
+      <c r="F141" t="n">
+        <v>88.10000000000002</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>2011年9月</t>
+          <t>2011-12</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>5.2</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C142" t="n">
-        <v>78.7</v>
+        <v>98.7</v>
       </c>
       <c r="D142" t="n">
-        <v>762.7</v>
+        <v>1025.3</v>
       </c>
       <c r="E142" t="n">
-        <v>7.5</v>
+        <v>6.9</v>
+      </c>
+      <c r="F142" t="n">
+        <v>95.19999999999993</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>2012年10月</t>
+          <t>2012-01</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>9.800000000000001</v>
+        <v>13.025641025641</v>
       </c>
       <c r="C143" t="n">
-        <v>86.59999999999999</v>
+        <v>110.2</v>
       </c>
       <c r="D143" t="n">
-        <v>866.9</v>
+        <v>110.2</v>
       </c>
       <c r="E143" t="n">
-        <v>6.2</v>
+        <v>13.025641025641</v>
+      </c>
+      <c r="F143" t="n">
+        <v>110.2</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>2012年11月</t>
+          <t>2012-02</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>11.5</v>
+        <v>10.2</v>
       </c>
       <c r="C144" t="n">
-        <v>97.90000000000001</v>
+        <v>108.5</v>
       </c>
       <c r="D144" t="n">
-        <v>965.1</v>
+        <v>218.7</v>
       </c>
       <c r="E144" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
+      </c>
+      <c r="F144" t="n">
+        <v>108.5</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>2012年12月</t>
+          <t>2012-03</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>5.6</v>
+        <v>9.1</v>
       </c>
       <c r="C145" t="n">
-        <v>102</v>
+        <v>113.1</v>
       </c>
       <c r="D145" t="n">
-        <v>1067.3</v>
+        <v>330</v>
       </c>
       <c r="E145" t="n">
-        <v>6.7</v>
+        <v>7.6</v>
+      </c>
+      <c r="F145" t="n">
+        <v>111.3</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>2012年1月</t>
+          <t>2012-04</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>13.025641025641</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C146" t="n">
-        <v>110.2</v>
+        <v>84.8</v>
       </c>
       <c r="D146" t="n">
-        <v>110.2</v>
+        <v>373</v>
       </c>
       <c r="E146" t="n">
-        <v>13.025641025641</v>
+        <v>7.5</v>
+      </c>
+      <c r="F146" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>2012年2月</t>
+          <t>2012-05</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>10.2</v>
+        <v>5</v>
       </c>
       <c r="C147" t="n">
-        <v>108.5</v>
+        <v>83.3</v>
       </c>
       <c r="D147" t="n">
-        <v>218.7</v>
+        <v>454.5</v>
       </c>
       <c r="E147" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
+      </c>
+      <c r="F147" t="n">
+        <v>81.5</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>2012年3月</t>
+          <t>2012-06</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>9.1</v>
+        <v>2.6</v>
       </c>
       <c r="C148" t="n">
-        <v>113.1</v>
+        <v>81.5</v>
       </c>
       <c r="D148" t="n">
-        <v>330</v>
+        <v>536.2</v>
       </c>
       <c r="E148" t="n">
-        <v>7.6</v>
+        <v>6.3</v>
+      </c>
+      <c r="F148" t="n">
+        <v>81.70000000000005</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>2012年4月</t>
+          <t>2012-07</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>8.699999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="C149" t="n">
-        <v>84.8</v>
+        <v>82.5</v>
       </c>
       <c r="D149" t="n">
-        <v>373</v>
+        <v>617.7</v>
       </c>
       <c r="E149" t="n">
-        <v>7.5</v>
+        <v>5.5</v>
+      </c>
+      <c r="F149" t="n">
+        <v>81.5</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>2012年5月</t>
+          <t>2012-08</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="C150" t="n">
-        <v>83.3</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="D150" t="n">
-        <v>454.5</v>
+        <v>697.6</v>
       </c>
       <c r="E150" t="n">
-        <v>7.2</v>
+        <v>5.4</v>
+      </c>
+      <c r="F150" t="n">
+        <v>79.89999999999998</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>2012年6月</t>
+          <t>2012-09</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>2.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C151" t="n">
-        <v>81.5</v>
+        <v>81.7</v>
       </c>
       <c r="D151" t="n">
-        <v>536.2</v>
+        <v>779.8</v>
       </c>
       <c r="E151" t="n">
-        <v>6.3</v>
+        <v>5.2</v>
+      </c>
+      <c r="F151" t="n">
+        <v>82.19999999999993</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>2012年7月</t>
+          <t>2012-10</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>1.1</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C152" t="n">
-        <v>82.5</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="D152" t="n">
-        <v>617.7</v>
+        <v>866.9</v>
       </c>
       <c r="E152" t="n">
-        <v>5.5</v>
+        <v>6.2</v>
+      </c>
+      <c r="F152" t="n">
+        <v>87.10000000000002</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>2012年8月</t>
+          <t>2012-11</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>5.3</v>
+        <v>11.5</v>
       </c>
       <c r="C153" t="n">
-        <v>82.90000000000001</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="D153" t="n">
-        <v>697.6</v>
+        <v>965.1</v>
       </c>
       <c r="E153" t="n">
-        <v>5.4</v>
+        <v>6.9</v>
+      </c>
+      <c r="F153" t="n">
+        <v>98.20000000000005</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>2012年9月</t>
+          <t>2012-12</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>8.199999999999999</v>
+        <v>5.6</v>
       </c>
       <c r="C154" t="n">
-        <v>81.7</v>
+        <v>102</v>
       </c>
       <c r="D154" t="n">
-        <v>779.8</v>
+        <v>1067.3</v>
       </c>
       <c r="E154" t="n">
-        <v>5.2</v>
+        <v>6.7</v>
+      </c>
+      <c r="F154" t="n">
+        <v>102.1999999999999</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>2013年10月</t>
-        </is>
-      </c>
-      <c r="B155" t="n">
-        <v>9.359999999999999</v>
-      </c>
-      <c r="C155" t="n">
-        <v>92.28</v>
-      </c>
+          <t>2013-02</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr"/>
+      <c r="C155" t="inlineStr"/>
       <c r="D155" t="n">
-        <v>920.0700000000001</v>
+        <v>202.166</v>
       </c>
       <c r="E155" t="n">
-        <v>9.15</v>
+        <v>8.258306420390261</v>
+      </c>
+      <c r="F155" t="n">
+        <v>202.166</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>2013年11月</t>
+          <t>2013-03</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>6.44</v>
+        <v>5.59</v>
       </c>
       <c r="C156" t="n">
-        <v>100.1</v>
+        <v>99.3</v>
       </c>
       <c r="D156" t="n">
-        <v>1020.18</v>
+        <v>294.64</v>
       </c>
       <c r="E156" t="n">
-        <v>8.880000000000001</v>
+        <v>6.07</v>
+      </c>
+      <c r="F156" t="n">
+        <v>92.47399999999999</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>2013年12月</t>
+          <t>2013-04</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>11.08</v>
+        <v>12.84</v>
       </c>
       <c r="C157" t="n">
-        <v>109.13</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="D157" t="n">
-        <v>1129.39</v>
+        <v>386.63</v>
       </c>
       <c r="E157" t="n">
-        <v>9.1</v>
+        <v>7.59</v>
+      </c>
+      <c r="F157" t="n">
+        <v>91.99000000000001</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>2013年2月</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr"/>
-      <c r="C158" t="inlineStr"/>
+          <t>2013-05</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>11.13</v>
+      </c>
+      <c r="C158" t="n">
+        <v>88.81999999999999</v>
+      </c>
       <c r="D158" t="n">
-        <v>202.166</v>
+        <v>475.38</v>
       </c>
       <c r="E158" t="n">
-        <v>8.258306420390261</v>
+        <v>8.23</v>
+      </c>
+      <c r="F158" t="n">
+        <v>88.75</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>2013年3月</t>
+          <t>2013-06</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>5.59</v>
+        <v>12.56</v>
       </c>
       <c r="C159" t="n">
-        <v>99.3</v>
+        <v>88.5</v>
       </c>
       <c r="D159" t="n">
-        <v>294.64</v>
+        <v>564.1</v>
       </c>
       <c r="E159" t="n">
-        <v>6.07</v>
+        <v>8.93</v>
+      </c>
+      <c r="F159" t="n">
+        <v>88.72000000000003</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>2013年4月</t>
+          <t>2013-07</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>12.84</v>
+        <v>12.42</v>
       </c>
       <c r="C160" t="n">
-        <v>92.09999999999999</v>
+        <v>89.84</v>
       </c>
       <c r="D160" t="n">
-        <v>386.63</v>
+        <v>653.8099999999999</v>
       </c>
       <c r="E160" t="n">
-        <v>7.59</v>
+        <v>9.4</v>
+      </c>
+      <c r="F160" t="n">
+        <v>89.70999999999992</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>2013年5月</t>
+          <t>2013-08</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>11.13</v>
+        <v>9.85</v>
       </c>
       <c r="C161" t="n">
-        <v>88.81999999999999</v>
+        <v>88.95999999999999</v>
       </c>
       <c r="D161" t="n">
-        <v>475.38</v>
+        <v>742.77</v>
       </c>
       <c r="E161" t="n">
-        <v>8.23</v>
+        <v>9.43</v>
+      </c>
+      <c r="F161" t="n">
+        <v>88.96000000000004</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>2013年6月</t>
+          <t>2013-09</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>12.56</v>
+        <v>6.59</v>
       </c>
       <c r="C162" t="n">
-        <v>88.5</v>
+        <v>85.02</v>
       </c>
       <c r="D162" t="n">
-        <v>564.1</v>
+        <v>827.79</v>
       </c>
       <c r="E162" t="n">
-        <v>8.93</v>
+        <v>9.130000000000001</v>
+      </c>
+      <c r="F162" t="n">
+        <v>85.01999999999998</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>2013年7月</t>
+          <t>2013-10</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>12.42</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="C163" t="n">
-        <v>89.84</v>
+        <v>92.28</v>
       </c>
       <c r="D163" t="n">
-        <v>653.8099999999999</v>
+        <v>920.0700000000001</v>
       </c>
       <c r="E163" t="n">
-        <v>9.4</v>
+        <v>9.15</v>
+      </c>
+      <c r="F163" t="n">
+        <v>92.28000000000009</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>2013年8月</t>
+          <t>2013-11</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>9.85</v>
+        <v>6.44</v>
       </c>
       <c r="C164" t="n">
-        <v>88.95999999999999</v>
+        <v>100.1</v>
       </c>
       <c r="D164" t="n">
-        <v>742.77</v>
+        <v>1020.18</v>
       </c>
       <c r="E164" t="n">
-        <v>9.43</v>
+        <v>8.880000000000001</v>
+      </c>
+      <c r="F164" t="n">
+        <v>100.1099999999999</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>2013年9月</t>
+          <t>2013-12</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>6.59</v>
+        <v>11.08</v>
       </c>
       <c r="C165" t="n">
-        <v>85.02</v>
+        <v>109.13</v>
       </c>
       <c r="D165" t="n">
-        <v>827.79</v>
+        <v>1129.39</v>
       </c>
       <c r="E165" t="n">
-        <v>9.130000000000001</v>
+        <v>9.1</v>
+      </c>
+      <c r="F165" t="n">
+        <v>109.2100000000002</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>2014年10月</t>
+          <t>2014-02</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>8.300000000000001</v>
+        <v>13.49</v>
       </c>
       <c r="C166" t="n">
-        <v>103.05</v>
+        <v>103.98</v>
       </c>
       <c r="D166" t="n">
-        <v>1012.83</v>
+        <v>213.92</v>
       </c>
       <c r="E166" t="n">
-        <v>7.08</v>
+        <v>7.11</v>
+      </c>
+      <c r="F166" t="n">
+        <v>213.92</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>2014年11月</t>
+          <t>2014-03</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>7.98</v>
+        <v>7.64</v>
       </c>
       <c r="C167" t="n">
-        <v>110.7</v>
+        <v>109.51</v>
       </c>
       <c r="D167" t="n">
-        <v>1112.61</v>
+        <v>323.4</v>
       </c>
       <c r="E167" t="n">
-        <v>6.7</v>
+        <v>7.16</v>
+      </c>
+      <c r="F167" t="n">
+        <v>109.48</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>2014年12月</t>
+          <t>2014-04</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>8.92</v>
+        <v>3.34</v>
       </c>
       <c r="C168" t="n">
-        <v>121.54</v>
+        <v>97.76000000000001</v>
       </c>
       <c r="D168" t="n">
-        <v>1234.14</v>
+        <v>421.11</v>
       </c>
       <c r="E168" t="n">
-        <v>6.91</v>
+        <v>6.21</v>
+      </c>
+      <c r="F168" t="n">
+        <v>97.71000000000004</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>2014年2月</t>
+          <t>2014-05</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>13.49</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C169" t="n">
-        <v>103.98</v>
+        <v>98.92</v>
       </c>
       <c r="D169" t="n">
-        <v>213.92</v>
+        <v>520.14</v>
       </c>
       <c r="E169" t="n">
-        <v>7.11</v>
+        <v>6.61</v>
+      </c>
+      <c r="F169" t="n">
+        <v>99.02999999999997</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>2014年3月</t>
+          <t>2014-06</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>7.64</v>
+        <v>2.49</v>
       </c>
       <c r="C170" t="n">
-        <v>109.51</v>
+        <v>93.31</v>
       </c>
       <c r="D170" t="n">
-        <v>323.4</v>
+        <v>613.4</v>
       </c>
       <c r="E170" t="n">
-        <v>7.16</v>
+        <v>5.93</v>
+      </c>
+      <c r="F170" t="n">
+        <v>93.25999999999999</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>2014年4月</t>
+          <t>2014-07</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>3.34</v>
+        <v>6.31</v>
       </c>
       <c r="C171" t="n">
-        <v>97.76000000000001</v>
+        <v>98.27</v>
       </c>
       <c r="D171" t="n">
-        <v>421.11</v>
+        <v>715.55</v>
       </c>
       <c r="E171" t="n">
-        <v>6.21</v>
+        <v>6.56</v>
+      </c>
+      <c r="F171" t="n">
+        <v>102.15</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>2014年5月</t>
+          <t>2014-08</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>8.199999999999999</v>
+        <v>7.95</v>
       </c>
       <c r="C172" t="n">
-        <v>98.92</v>
+        <v>98.84999999999999</v>
       </c>
       <c r="D172" t="n">
-        <v>520.14</v>
+        <v>814.39</v>
       </c>
       <c r="E172" t="n">
-        <v>6.61</v>
+        <v>6.73</v>
+      </c>
+      <c r="F172" t="n">
+        <v>98.84000000000003</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>2014年6月</t>
+          <t>2014-09</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>2.49</v>
+        <v>8.82</v>
       </c>
       <c r="C173" t="n">
-        <v>93.31</v>
+        <v>95.38</v>
       </c>
       <c r="D173" t="n">
-        <v>613.4</v>
+        <v>909.78</v>
       </c>
       <c r="E173" t="n">
-        <v>5.93</v>
+        <v>6.94</v>
+      </c>
+      <c r="F173" t="n">
+        <v>95.38999999999999</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>2014年7月</t>
+          <t>2014-10</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>6.31</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C174" t="n">
-        <v>98.27</v>
+        <v>103.05</v>
       </c>
       <c r="D174" t="n">
-        <v>715.55</v>
+        <v>1012.83</v>
       </c>
       <c r="E174" t="n">
-        <v>6.56</v>
+        <v>7.08</v>
+      </c>
+      <c r="F174" t="n">
+        <v>103.0500000000001</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>2014年8月</t>
+          <t>2014-11</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>7.95</v>
+        <v>7.98</v>
       </c>
       <c r="C175" t="n">
-        <v>98.84999999999999</v>
+        <v>110.7</v>
       </c>
       <c r="D175" t="n">
-        <v>814.39</v>
+        <v>1112.61</v>
       </c>
       <c r="E175" t="n">
-        <v>6.73</v>
+        <v>6.7</v>
+      </c>
+      <c r="F175" t="n">
+        <v>99.77999999999986</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>2014年9月</t>
+          <t>2014-12</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>8.82</v>
+        <v>8.92</v>
       </c>
       <c r="C176" t="n">
-        <v>95.38</v>
+        <v>121.54</v>
       </c>
       <c r="D176" t="n">
-        <v>909.78</v>
+        <v>1234.14</v>
       </c>
       <c r="E176" t="n">
-        <v>6.94</v>
+        <v>6.91</v>
+      </c>
+      <c r="F176" t="n">
+        <v>121.5300000000002</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>2015年10月</t>
+          <t>2015-02</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>1.35</v>
+        <v>1.15</v>
       </c>
       <c r="C177" t="n">
-        <v>103.9002</v>
+        <v>104.71</v>
       </c>
       <c r="D177" t="n">
-        <v>1034.9381</v>
+        <v>224.65</v>
       </c>
       <c r="E177" t="n">
-        <v>2.68</v>
+        <v>5.49</v>
+      </c>
+      <c r="F177" t="n">
+        <v>224.65</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>2015年11月</t>
+          <t>2015-03</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>0.19</v>
+        <v>2.33</v>
       </c>
       <c r="C178" t="n">
-        <v>111.0834</v>
+        <v>111.49</v>
       </c>
       <c r="D178" t="n">
-        <v>1146.0216</v>
+        <v>336.4</v>
       </c>
       <c r="E178" t="n">
-        <v>2.86</v>
+        <v>4.54</v>
+      </c>
+      <c r="F178" t="n">
+        <v>111.75</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>2015年12月</t>
+          <t>2015-04</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>2.49</v>
+        <v>-2.85</v>
       </c>
       <c r="C179" t="n">
-        <v>124.718</v>
+        <v>93.95999999999999</v>
       </c>
       <c r="D179" t="n">
-        <v>1271.4134</v>
+        <v>430.44</v>
       </c>
       <c r="E179" t="n">
-        <v>2.92</v>
+        <v>3.33</v>
+      </c>
+      <c r="F179" t="n">
+        <v>94.04000000000002</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>2015年2月</t>
+          <t>2015-05</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>1.15</v>
+        <v>-1.99</v>
       </c>
       <c r="C180" t="n">
-        <v>104.71</v>
+        <v>98.7051</v>
       </c>
       <c r="D180" t="n">
-        <v>224.65</v>
+        <v>532.3919</v>
       </c>
       <c r="E180" t="n">
-        <v>5.49</v>
+        <v>2.06</v>
+      </c>
+      <c r="F180" t="n">
+        <v>101.9519</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>2015年3月</t>
+          <t>2015-06</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>2.33</v>
+        <v>4.85</v>
       </c>
       <c r="C181" t="n">
-        <v>111.49</v>
+        <v>99.3403</v>
       </c>
       <c r="D181" t="n">
-        <v>336.4</v>
+        <v>629.7954999999999</v>
       </c>
       <c r="E181" t="n">
-        <v>4.54</v>
+        <v>2.48</v>
+      </c>
+      <c r="F181" t="n">
+        <v>97.40359999999998</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>2015年4月</t>
+          <t>2015-07</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>-2.85</v>
+        <v>3.21</v>
       </c>
       <c r="C182" t="n">
-        <v>93.95999999999999</v>
+        <v>100.9696</v>
       </c>
       <c r="D182" t="n">
-        <v>430.44</v>
+        <v>730.7651</v>
       </c>
       <c r="E182" t="n">
-        <v>3.33</v>
+        <v>2.58</v>
+      </c>
+      <c r="F182" t="n">
+        <v>100.9696</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>2015年5月</t>
+          <t>2015-08</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>-1.99</v>
+        <v>5.95</v>
       </c>
       <c r="C183" t="n">
-        <v>98.7051</v>
+        <v>104.1864</v>
       </c>
       <c r="D183" t="n">
-        <v>532.3919</v>
+        <v>834.9515</v>
       </c>
       <c r="E183" t="n">
-        <v>2.06</v>
+        <v>2.99</v>
+      </c>
+      <c r="F183" t="n">
+        <v>104.1864</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>2015年6月</t>
+          <t>2015-09</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>4.85</v>
+        <v>1.1</v>
       </c>
       <c r="C184" t="n">
-        <v>99.3403</v>
+        <v>95.7829</v>
       </c>
       <c r="D184" t="n">
-        <v>629.7954999999999</v>
+        <v>931.0379</v>
       </c>
       <c r="E184" t="n">
-        <v>2.48</v>
+        <v>2.83</v>
+      </c>
+      <c r="F184" t="n">
+        <v>96.08640000000003</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>2015年7月</t>
+          <t>2015-10</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>3.21</v>
+        <v>1.35</v>
       </c>
       <c r="C185" t="n">
-        <v>100.9696</v>
+        <v>103.9002</v>
       </c>
       <c r="D185" t="n">
-        <v>730.7651</v>
+        <v>1034.9381</v>
       </c>
       <c r="E185" t="n">
-        <v>2.58</v>
+        <v>2.68</v>
+      </c>
+      <c r="F185" t="n">
+        <v>103.9002</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>2015年8月</t>
+          <t>2015-11</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>5.95</v>
+        <v>0.19</v>
       </c>
       <c r="C186" t="n">
-        <v>104.1864</v>
+        <v>111.0834</v>
       </c>
       <c r="D186" t="n">
-        <v>834.9515</v>
+        <v>1146.0216</v>
       </c>
       <c r="E186" t="n">
-        <v>2.99</v>
+        <v>2.86</v>
+      </c>
+      <c r="F186" t="n">
+        <v>111.0835</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>2015年9月</t>
+          <t>2015-12</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>1.1</v>
+        <v>2.49</v>
       </c>
       <c r="C187" t="n">
-        <v>95.7829</v>
+        <v>124.718</v>
       </c>
       <c r="D187" t="n">
-        <v>931.0379</v>
+        <v>1271.4134</v>
       </c>
       <c r="E187" t="n">
-        <v>2.83</v>
+        <v>2.92</v>
+      </c>
+      <c r="F187" t="n">
+        <v>125.3917999999999</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>2016年10月</t>
-        </is>
-      </c>
-      <c r="B188" t="n">
-        <v>-1.4</v>
-      </c>
-      <c r="C188" t="n">
-        <v>108.3</v>
-      </c>
+          <t>2016-02</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr"/>
+      <c r="C188" t="inlineStr"/>
       <c r="D188" t="n">
-        <v>1111.7</v>
+        <v>250.6725</v>
       </c>
       <c r="E188" t="n">
-        <v>1.9</v>
+        <v>5.67</v>
+      </c>
+      <c r="F188" t="n">
+        <v>250.6725</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>2016年11月</t>
+          <t>2016-03</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>5.5</v>
+        <v>4.04</v>
       </c>
       <c r="C189" t="n">
-        <v>123.5</v>
+        <v>122.6726</v>
       </c>
       <c r="D189" t="n">
-        <v>1235.4</v>
+        <v>373.9798</v>
       </c>
       <c r="E189" t="n">
-        <v>2.2</v>
+        <v>5.3</v>
+      </c>
+      <c r="F189" t="n">
+        <v>123.3073</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>2016年12月</t>
+          <t>2016-04</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>1.7</v>
+        <v>5.6</v>
       </c>
       <c r="C190" t="n">
-        <v>133.1</v>
+        <v>105.8</v>
       </c>
       <c r="D190" t="n">
-        <v>1368.3</v>
+        <v>479.8</v>
       </c>
       <c r="E190" t="n">
-        <v>2.2</v>
+        <v>5.3</v>
+      </c>
+      <c r="F190" t="n">
+        <v>105.8202</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>2016年2月</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr"/>
-      <c r="C191" t="inlineStr"/>
+          <t>2016-05</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="C191" t="n">
+        <v>108.3</v>
+      </c>
       <c r="D191" t="n">
-        <v>250.6725</v>
+        <v>589.5</v>
       </c>
       <c r="E191" t="n">
-        <v>5.67</v>
+        <v>5.2</v>
+      </c>
+      <c r="F191" t="n">
+        <v>109.7</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>2016年3月</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>4.04</v>
+        <v>-0.5</v>
       </c>
       <c r="C192" t="n">
-        <v>122.6726</v>
+        <v>101.6</v>
       </c>
       <c r="D192" t="n">
-        <v>373.9798</v>
+        <v>690.4</v>
       </c>
       <c r="E192" t="n">
-        <v>5.3</v>
+        <v>4.1</v>
+      </c>
+      <c r="F192" t="n">
+        <v>100.9</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>2016年4月</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>5.6</v>
+        <v>-3.3</v>
       </c>
       <c r="C193" t="n">
-        <v>105.8</v>
+        <v>103.1</v>
       </c>
       <c r="D193" t="n">
-        <v>479.8</v>
+        <v>793.8</v>
       </c>
       <c r="E193" t="n">
-        <v>5.3</v>
+        <v>3.1</v>
+      </c>
+      <c r="F193" t="n">
+        <v>103.4</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>2016年5月</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>4.3</v>
+        <v>-2</v>
       </c>
       <c r="C194" t="n">
-        <v>108.3</v>
+        <v>107.8</v>
       </c>
       <c r="D194" t="n">
-        <v>589.5</v>
+        <v>901.8</v>
       </c>
       <c r="E194" t="n">
-        <v>5.2</v>
+        <v>2.5</v>
+      </c>
+      <c r="F194" t="n">
+        <v>108</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>2016年6月</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>-0.5</v>
+        <v>0.1</v>
       </c>
       <c r="C195" t="n">
-        <v>101.6</v>
+        <v>101.5</v>
       </c>
       <c r="D195" t="n">
-        <v>690.4</v>
+        <v>1003.5</v>
       </c>
       <c r="E195" t="n">
-        <v>4.1</v>
+        <v>2.2</v>
+      </c>
+      <c r="F195" t="n">
+        <v>101.7</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>2016年7月</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>-3.3</v>
+        <v>-1.4</v>
       </c>
       <c r="C196" t="n">
-        <v>103.1</v>
+        <v>108.3</v>
       </c>
       <c r="D196" t="n">
-        <v>793.8</v>
+        <v>1111.7</v>
       </c>
       <c r="E196" t="n">
-        <v>3.1</v>
+        <v>1.9</v>
+      </c>
+      <c r="F196" t="n">
+        <v>108.2</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>2016年8月</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>-2</v>
+        <v>5.5</v>
       </c>
       <c r="C197" t="n">
-        <v>107.8</v>
+        <v>123.5</v>
       </c>
       <c r="D197" t="n">
-        <v>901.8</v>
+        <v>1235.4</v>
       </c>
       <c r="E197" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
+      </c>
+      <c r="F197" t="n">
+        <v>123.7</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>2016年9月</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>0.1</v>
+        <v>1.7</v>
       </c>
       <c r="C198" t="n">
-        <v>101.5</v>
+        <v>133.1</v>
       </c>
       <c r="D198" t="n">
-        <v>1003.5</v>
+        <v>1368.3</v>
       </c>
       <c r="E198" t="n">
         <v>2.2</v>
       </c>
+      <c r="F198" t="n">
+        <v>132.8999999999999</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>2017年10月</t>
-        </is>
-      </c>
-      <c r="B199" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="C199" t="n">
-        <v>124.1</v>
-      </c>
+          <t>2017-02</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr"/>
+      <c r="C199" t="inlineStr"/>
       <c r="D199" t="n">
-        <v>1211.2</v>
+        <v>251.5</v>
       </c>
       <c r="E199" t="n">
-        <v>9.699999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="F199" t="n">
+        <v>251.5</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>2017年11月</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>3</v>
+        <v>10.5</v>
       </c>
       <c r="C200" t="n">
-        <v>126.3</v>
+        <v>135.8</v>
       </c>
       <c r="D200" t="n">
-        <v>1338.1</v>
+        <v>387.4</v>
       </c>
       <c r="E200" t="n">
-        <v>9.1</v>
+        <v>3.4</v>
+      </c>
+      <c r="F200" t="n">
+        <v>135.9</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>2017年12月</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>2.9</v>
+        <v>15</v>
       </c>
       <c r="C201" t="n">
-        <v>136.1</v>
+        <v>122</v>
       </c>
       <c r="D201" t="n">
-        <v>1474.2</v>
+        <v>509.4</v>
       </c>
       <c r="E201" t="n">
-        <v>8.5</v>
+        <v>6</v>
+      </c>
+      <c r="F201" t="n">
+        <v>122</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>2017年2月</t>
-        </is>
-      </c>
-      <c r="B202" t="inlineStr"/>
-      <c r="C202" t="inlineStr"/>
+          <t>2017-05</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="C202" t="n">
+        <v>119.9</v>
+      </c>
       <c r="D202" t="n">
-        <v>251.5</v>
+        <v>629.3</v>
       </c>
       <c r="E202" t="n">
-        <v>0</v>
+        <v>6.8</v>
+      </c>
+      <c r="F202" t="n">
+        <v>119.9</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>2017年3月</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>10.5</v>
+        <v>14.6</v>
       </c>
       <c r="C203" t="n">
-        <v>135.8</v>
+        <v>115.5</v>
       </c>
       <c r="D203" t="n">
-        <v>387.4</v>
+        <v>740.8</v>
       </c>
       <c r="E203" t="n">
-        <v>3.4</v>
+        <v>8</v>
+      </c>
+      <c r="F203" t="n">
+        <v>111.5</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>2017年4月</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>15</v>
+        <v>14.7</v>
       </c>
       <c r="C204" t="n">
-        <v>122</v>
+        <v>117.4</v>
       </c>
       <c r="D204" t="n">
-        <v>509.4</v>
+        <v>858.1</v>
       </c>
       <c r="E204" t="n">
-        <v>6</v>
+        <v>8.800000000000001</v>
+      </c>
+      <c r="F204" t="n">
+        <v>117.3000000000001</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>2017年5月</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>10.5</v>
+        <v>11.7</v>
       </c>
       <c r="C205" t="n">
-        <v>119.9</v>
+        <v>119.5</v>
       </c>
       <c r="D205" t="n">
-        <v>629.3</v>
+        <v>977.7</v>
       </c>
       <c r="E205" t="n">
-        <v>6.8</v>
+        <v>9.199999999999999</v>
+      </c>
+      <c r="F205" t="n">
+        <v>119.6</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>2017年6月</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>14.6</v>
+        <v>10.7</v>
       </c>
       <c r="C206" t="n">
-        <v>115.5</v>
+        <v>111.5</v>
       </c>
       <c r="D206" t="n">
-        <v>740.8</v>
+        <v>1087.2</v>
       </c>
       <c r="E206" t="n">
-        <v>8</v>
+        <v>9.1</v>
+      </c>
+      <c r="F206" t="n">
+        <v>109.5</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>2017年7月</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>14.7</v>
+        <v>15.4</v>
       </c>
       <c r="C207" t="n">
-        <v>117.4</v>
+        <v>124.1</v>
       </c>
       <c r="D207" t="n">
-        <v>858.1</v>
+        <v>1211.2</v>
       </c>
       <c r="E207" t="n">
-        <v>8.800000000000001</v>
+        <v>9.699999999999999</v>
+      </c>
+      <c r="F207" t="n">
+        <v>124</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>2017年8月</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>11.7</v>
+        <v>3</v>
       </c>
       <c r="C208" t="n">
-        <v>119.5</v>
+        <v>126.3</v>
       </c>
       <c r="D208" t="n">
-        <v>977.7</v>
+        <v>1338.1</v>
       </c>
       <c r="E208" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
+      </c>
+      <c r="F208" t="n">
+        <v>126.8999999999999</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>2017年9月</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>10.7</v>
+        <v>2.9</v>
       </c>
       <c r="C209" t="n">
-        <v>111.5</v>
+        <v>136.1</v>
       </c>
       <c r="D209" t="n">
-        <v>1087.2</v>
+        <v>1474.2</v>
       </c>
       <c r="E209" t="n">
-        <v>9.1</v>
+        <v>8.5</v>
+      </c>
+      <c r="F209" t="n">
+        <v>136.1000000000001</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>2018年10月</t>
-        </is>
-      </c>
-      <c r="B210" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="C210" t="n">
-        <v>134.2</v>
-      </c>
+          <t>2018-02</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr"/>
+      <c r="C210" t="inlineStr"/>
       <c r="D210" t="n">
-        <v>1295.3</v>
+        <v>261.9</v>
       </c>
       <c r="E210" t="n">
-        <v>6.3</v>
+        <v>4.9</v>
+      </c>
+      <c r="F210" t="n">
+        <v>261.9</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>2018年11月</t>
+          <t>2018-03</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>10.1</v>
+        <v>0.4</v>
       </c>
       <c r="C211" t="n">
-        <v>142.7</v>
+        <v>135.2</v>
       </c>
       <c r="D211" t="n">
-        <v>1438.1</v>
+        <v>396.7</v>
       </c>
       <c r="E211" t="n">
-        <v>6.6</v>
+        <v>3.3</v>
+      </c>
+      <c r="F211" t="n">
+        <v>134.8</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>2018年12月</t>
+          <t>2018-04</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>10</v>
+        <v>6.3</v>
       </c>
       <c r="C212" t="n">
-        <v>152.5</v>
+        <v>128.9</v>
       </c>
       <c r="D212" t="n">
-        <v>1610.2</v>
+        <v>526.3</v>
       </c>
       <c r="E212" t="n">
-        <v>7.5</v>
+        <v>4</v>
+      </c>
+      <c r="F212" t="n">
+        <v>129.6</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>2018年2月</t>
-        </is>
-      </c>
-      <c r="B213" t="inlineStr"/>
-      <c r="C213" t="inlineStr"/>
+          <t>2018-05</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="C213" t="n">
+        <v>126.2</v>
+      </c>
       <c r="D213" t="n">
-        <v>261.9</v>
+        <v>652.4</v>
       </c>
       <c r="E213" t="n">
-        <v>4.9</v>
+        <v>4.3</v>
+      </c>
+      <c r="F213" t="n">
+        <v>126.1</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>2018年3月</t>
+          <t>2018-06</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>0.4</v>
+        <v>5.6</v>
       </c>
       <c r="C214" t="n">
-        <v>135.2</v>
+        <v>121.8</v>
       </c>
       <c r="D214" t="n">
-        <v>396.7</v>
+        <v>775</v>
       </c>
       <c r="E214" t="n">
-        <v>3.3</v>
+        <v>4.6</v>
+      </c>
+      <c r="F214" t="n">
+        <v>122.6</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>2018年4月</t>
+          <t>2018-07</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>6.3</v>
+        <v>10.5</v>
       </c>
       <c r="C215" t="n">
-        <v>128.9</v>
+        <v>129.6</v>
       </c>
       <c r="D215" t="n">
-        <v>526.3</v>
+        <v>904.9</v>
       </c>
       <c r="E215" t="n">
-        <v>4</v>
+        <v>5.5</v>
+      </c>
+      <c r="F215" t="n">
+        <v>129.9</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>2018年5月</t>
+          <t>2018-08</t>
         </is>
       </c>
       <c r="B216" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="C216" t="n">
+        <v>129</v>
+      </c>
+      <c r="D216" t="n">
+        <v>1039.5</v>
+      </c>
+      <c r="E216" t="n">
         <v>5.9</v>
       </c>
-      <c r="C216" t="n">
-        <v>126.2</v>
-      </c>
-      <c r="D216" t="n">
-        <v>652.4</v>
-      </c>
-      <c r="E216" t="n">
-        <v>4.3</v>
+      <c r="F216" t="n">
+        <v>134.6</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>2018年6月</t>
+          <t>2018-09</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>5.6</v>
+        <v>8.5</v>
       </c>
       <c r="C217" t="n">
         <v>121.8</v>
       </c>
       <c r="D217" t="n">
-        <v>775</v>
+        <v>1161.7</v>
       </c>
       <c r="E217" t="n">
-        <v>4.6</v>
+        <v>6.2</v>
+      </c>
+      <c r="F217" t="n">
+        <v>122.2</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>2018年7月</t>
+          <t>2018-10</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>10.5</v>
+        <v>7.5</v>
       </c>
       <c r="C218" t="n">
-        <v>129.6</v>
+        <v>134.2</v>
       </c>
       <c r="D218" t="n">
-        <v>904.9</v>
+        <v>1295.3</v>
       </c>
       <c r="E218" t="n">
-        <v>5.5</v>
+        <v>6.3</v>
+      </c>
+      <c r="F218" t="n">
+        <v>133.5999999999999</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>2018年8月</t>
+          <t>2018-11</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>9.699999999999999</v>
+        <v>10.1</v>
       </c>
       <c r="C219" t="n">
-        <v>129</v>
+        <v>142.7</v>
       </c>
       <c r="D219" t="n">
-        <v>1039.5</v>
+        <v>1438.1</v>
       </c>
       <c r="E219" t="n">
-        <v>5.9</v>
+        <v>6.6</v>
+      </c>
+      <c r="F219" t="n">
+        <v>142.8</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>2018年9月</t>
+          <t>2018-12</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="C220" t="n">
-        <v>121.8</v>
+        <v>152.5</v>
       </c>
       <c r="D220" t="n">
-        <v>1161.7</v>
+        <v>1610.2</v>
       </c>
       <c r="E220" t="n">
-        <v>6.2</v>
+        <v>7.5</v>
+      </c>
+      <c r="F220" t="n">
+        <v>172.1000000000001</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>2019年10月</t>
-        </is>
-      </c>
-      <c r="B221" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="C221" t="n">
-        <v>145.6</v>
-      </c>
+          <t>2019-02</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr"/>
+      <c r="C221" t="inlineStr"/>
       <c r="D221" t="n">
-        <v>1422.8</v>
+        <v>286.8</v>
       </c>
       <c r="E221" t="n">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
+      </c>
+      <c r="F221" t="n">
+        <v>286.8</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>2019年11月</t>
+          <t>2019-03</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C222" t="n">
-        <v>150.8</v>
+        <v>150.6</v>
       </c>
       <c r="D222" t="n">
-        <v>1574.6</v>
+        <v>439.8</v>
       </c>
       <c r="E222" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
+      </c>
+      <c r="F222" t="n">
+        <v>153</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>2019年12月</t>
+          <t>2019-04</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>7.5</v>
+        <v>7.9</v>
       </c>
       <c r="C223" t="n">
-        <v>160.2</v>
+        <v>140.8</v>
       </c>
       <c r="D223" t="n">
-        <v>1736.2</v>
+        <v>580.6</v>
       </c>
       <c r="E223" t="n">
-        <v>9.800000000000001</v>
+        <v>9</v>
+      </c>
+      <c r="F223" t="n">
+        <v>140.8</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>2019年2月</t>
-        </is>
-      </c>
-      <c r="B224" t="inlineStr"/>
-      <c r="C224" t="inlineStr"/>
+          <t>2019-05</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="C224" t="n">
+        <v>144.2</v>
+      </c>
       <c r="D224" t="n">
-        <v>286.8</v>
+        <v>724.9</v>
       </c>
       <c r="E224" t="n">
-        <v>9.199999999999999</v>
+        <v>9.800000000000001</v>
+      </c>
+      <c r="F224" t="n">
+        <v>144.3</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>2019年3月</t>
+          <t>2019-06</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>9.800000000000001</v>
+        <v>13.1</v>
       </c>
       <c r="C225" t="n">
-        <v>150.6</v>
+        <v>139.2</v>
       </c>
       <c r="D225" t="n">
-        <v>439.8</v>
+        <v>864.1</v>
       </c>
       <c r="E225" t="n">
-        <v>9.4</v>
+        <v>10.3</v>
+      </c>
+      <c r="F225" t="n">
+        <v>139.2</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>2019年4月</t>
+          <t>2019-07</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>7.9</v>
+        <v>6.1</v>
       </c>
       <c r="C226" t="n">
-        <v>140.8</v>
+        <v>139</v>
       </c>
       <c r="D226" t="n">
-        <v>580.6</v>
+        <v>1003.3</v>
       </c>
       <c r="E226" t="n">
-        <v>9</v>
+        <v>9.699999999999999</v>
+      </c>
+      <c r="F226" t="n">
+        <v>139.1999999999999</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>2019年5月</t>
+          <t>2019-08</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>12.9</v>
+        <v>6.6</v>
       </c>
       <c r="C227" t="n">
-        <v>144.2</v>
+        <v>138.1</v>
       </c>
       <c r="D227" t="n">
-        <v>724.9</v>
+        <v>1141.4</v>
       </c>
       <c r="E227" t="n">
-        <v>9.800000000000001</v>
+        <v>9.300000000000001</v>
+      </c>
+      <c r="F227" t="n">
+        <v>138.1000000000001</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>2019年6月</t>
+          <t>2019-09</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>13.1</v>
+        <v>10.6</v>
       </c>
       <c r="C228" t="n">
-        <v>139.2</v>
+        <v>135.2</v>
       </c>
       <c r="D228" t="n">
-        <v>864.1</v>
+        <v>1277.2</v>
       </c>
       <c r="E228" t="n">
-        <v>10.3</v>
+        <v>9.5</v>
+      </c>
+      <c r="F228" t="n">
+        <v>135.8</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>2019年7月</t>
+          <t>2019-10</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>6.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C229" t="n">
-        <v>139</v>
+        <v>145.6</v>
       </c>
       <c r="D229" t="n">
-        <v>1003.3</v>
+        <v>1422.8</v>
       </c>
       <c r="E229" t="n">
-        <v>9.699999999999999</v>
+        <v>9.300000000000001</v>
+      </c>
+      <c r="F229" t="n">
+        <v>145.5999999999999</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>2019年8月</t>
+          <t>2019-11</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>6.6</v>
+        <v>8</v>
       </c>
       <c r="C230" t="n">
-        <v>138.1</v>
+        <v>150.8</v>
       </c>
       <c r="D230" t="n">
-        <v>1141.4</v>
+        <v>1574.6</v>
       </c>
       <c r="E230" t="n">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
+      </c>
+      <c r="F230" t="n">
+        <v>151.8</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
         <is>
-          <t>2019年9月</t>
+          <t>2019-12</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>10.6</v>
+        <v>7.5</v>
       </c>
       <c r="C231" t="n">
-        <v>135.2</v>
+        <v>160.2</v>
       </c>
       <c r="D231" t="n">
-        <v>1277.2</v>
+        <v>1736.2</v>
       </c>
       <c r="E231" t="n">
-        <v>9.5</v>
+        <v>9.800000000000001</v>
+      </c>
+      <c r="F231" t="n">
+        <v>161.6000000000001</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
         <is>
-          <t>2020年10月</t>
-        </is>
-      </c>
-      <c r="B232" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C232" t="n">
-        <v>163.2</v>
-      </c>
+          <t>2020-02</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr"/>
+      <c r="C232" t="inlineStr"/>
       <c r="D232" t="n">
-        <v>1534.1</v>
+        <v>314.1</v>
       </c>
       <c r="E232" t="n">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="F232" t="n">
+        <v>314.1</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
         <is>
-          <t>2020年11月</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>11.8</v>
+        <v>11.2</v>
       </c>
       <c r="C233" t="n">
         <v>168.6</v>
       </c>
       <c r="D233" t="n">
-        <v>1702.4</v>
+        <v>483.2</v>
       </c>
       <c r="E233" t="n">
-        <v>9.300000000000001</v>
+        <v>9.1</v>
+      </c>
+      <c r="F233" t="n">
+        <v>169.1</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
         <is>
-          <t>2020年12月</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>13.7</v>
+        <v>14.3</v>
       </c>
       <c r="C234" t="n">
-        <v>187.1</v>
+        <v>161.4</v>
       </c>
       <c r="D234" t="n">
-        <v>1888.5</v>
+        <v>644.2</v>
       </c>
       <c r="E234" t="n">
-        <v>9.800000000000001</v>
+        <v>10.3</v>
+      </c>
+      <c r="F234" t="n">
+        <v>161.0000000000001</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
         <is>
-          <t>2020年2月</t>
-        </is>
-      </c>
-      <c r="B235" t="inlineStr"/>
-      <c r="C235" t="inlineStr"/>
+          <t>2020-05</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="C235" t="n">
+        <v>159.4</v>
+      </c>
       <c r="D235" t="n">
-        <v>314.1</v>
+        <v>788.1</v>
       </c>
       <c r="E235" t="n">
-        <v>8</v>
+        <v>10.1</v>
+      </c>
+      <c r="F235" t="n">
+        <v>143.9</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
         <is>
-          <t>2020年3月</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="C236" t="n">
-        <v>168.6</v>
+        <v>151.9</v>
       </c>
       <c r="D236" t="n">
-        <v>483.2</v>
+        <v>940.2</v>
       </c>
       <c r="E236" t="n">
-        <v>9.1</v>
+        <v>10.3</v>
+      </c>
+      <c r="F236" t="n">
+        <v>152.1</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
         <is>
-          <t>2020年4月</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>14.3</v>
+        <v>4.8</v>
       </c>
       <c r="C237" t="n">
-        <v>161.4</v>
+        <v>142.4</v>
       </c>
       <c r="D237" t="n">
-        <v>644.2</v>
+        <v>1082.7</v>
       </c>
       <c r="E237" t="n">
-        <v>10.3</v>
+        <v>9.5</v>
+      </c>
+      <c r="F237" t="n">
+        <v>142.5</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
         <is>
-          <t>2020年5月</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>12.7</v>
+        <v>3.7</v>
       </c>
       <c r="C238" t="n">
-        <v>159.4</v>
+        <v>142.1</v>
       </c>
       <c r="D238" t="n">
-        <v>788.1</v>
+        <v>1224.8</v>
       </c>
       <c r="E238" t="n">
-        <v>10.1</v>
+        <v>8.800000000000001</v>
+      </c>
+      <c r="F238" t="n">
+        <v>142.0999999999999</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
         <is>
-          <t>2020年6月</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>11.3</v>
+        <v>7.6</v>
       </c>
       <c r="C239" t="n">
-        <v>151.9</v>
+        <v>145.9</v>
       </c>
       <c r="D239" t="n">
-        <v>940.2</v>
+        <v>1370.7</v>
       </c>
       <c r="E239" t="n">
-        <v>10.3</v>
+        <v>8.699999999999999</v>
+      </c>
+      <c r="F239" t="n">
+        <v>145.9000000000001</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
         <is>
-          <t>2020年7月</t>
+          <t>2020-10</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>4.8</v>
+        <v>11.9</v>
       </c>
       <c r="C240" t="n">
-        <v>142.4</v>
+        <v>163.2</v>
       </c>
       <c r="D240" t="n">
-        <v>1082.7</v>
+        <v>1534.1</v>
       </c>
       <c r="E240" t="n">
-        <v>9.5</v>
+        <v>9</v>
+      </c>
+      <c r="F240" t="n">
+        <v>163.3999999999999</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
         <is>
-          <t>2020年8月</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>3.7</v>
+        <v>11.8</v>
       </c>
       <c r="C241" t="n">
-        <v>142.1</v>
+        <v>168.6</v>
       </c>
       <c r="D241" t="n">
-        <v>1224.8</v>
+        <v>1702.4</v>
       </c>
       <c r="E241" t="n">
-        <v>8.800000000000001</v>
+        <v>9.300000000000001</v>
+      </c>
+      <c r="F241" t="n">
+        <v>168.3000000000002</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
         <is>
-          <t>2020年9月</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>7.6</v>
+        <v>13.7</v>
       </c>
       <c r="C242" t="n">
-        <v>145.9</v>
+        <v>187.1</v>
       </c>
       <c r="D242" t="n">
-        <v>1370.7</v>
+        <v>1888.5</v>
       </c>
       <c r="E242" t="n">
-        <v>8.699999999999999</v>
+        <v>9.800000000000001</v>
+      </c>
+      <c r="F242" t="n">
+        <v>186.0999999999999</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
         <is>
-          <t>2021年10月</t>
-        </is>
-      </c>
-      <c r="B243" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C243" t="n">
-        <v>164.5</v>
-      </c>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr"/>
+      <c r="C243" t="inlineStr"/>
       <c r="D243" t="n">
-        <v>1684.3</v>
+        <v>348.3</v>
       </c>
       <c r="E243" t="n">
-        <v>9.4</v>
+        <v>13.5</v>
+      </c>
+      <c r="F243" t="n">
+        <v>348.3</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
         <is>
-          <t>2021年11月</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>4.4</v>
+        <v>12.1</v>
       </c>
       <c r="C244" t="n">
-        <v>177.3</v>
+        <v>184.7</v>
       </c>
       <c r="D244" t="n">
-        <v>1860.5</v>
+        <v>533.1</v>
       </c>
       <c r="E244" t="n">
-        <v>8.9</v>
+        <v>13.1</v>
+      </c>
+      <c r="F244" t="n">
+        <v>184.8</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
         <is>
-          <t>2021年12月</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>2.3</v>
+        <v>7</v>
       </c>
       <c r="C245" t="n">
-        <v>191.9</v>
+        <v>168.6</v>
       </c>
       <c r="D245" t="n">
-        <v>2052.6</v>
+        <v>701.7</v>
       </c>
       <c r="E245" t="n">
-        <v>8.199999999999999</v>
+        <v>11.6</v>
+      </c>
+      <c r="F245" t="n">
+        <v>168.6</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
         <is>
-          <t>2021年2月</t>
-        </is>
-      </c>
-      <c r="B246" t="inlineStr"/>
-      <c r="C246" t="inlineStr"/>
+          <t>2021-05</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="C246" t="n">
+        <v>168.8</v>
+      </c>
       <c r="D246" t="n">
-        <v>348.3</v>
+        <v>871.8</v>
       </c>
       <c r="E246" t="n">
-        <v>13.5</v>
+        <v>10.3</v>
+      </c>
+      <c r="F246" t="n">
+        <v>170.0999999999999</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="inlineStr">
         <is>
-          <t>2021年3月</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>12.1</v>
+        <v>13.1</v>
       </c>
       <c r="C247" t="n">
-        <v>184.7</v>
+        <v>172.2</v>
       </c>
       <c r="D247" t="n">
-        <v>533.1</v>
+        <v>1044.6</v>
       </c>
       <c r="E247" t="n">
-        <v>13.1</v>
+        <v>10.9</v>
+      </c>
+      <c r="F247" t="n">
+        <v>172.8</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
         <is>
-          <t>2021年4月</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>7</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C248" t="n">
-        <v>168.6</v>
+        <v>157.6</v>
       </c>
       <c r="D248" t="n">
-        <v>701.7</v>
+        <v>1201.9</v>
       </c>
       <c r="E248" t="n">
-        <v>11.6</v>
+        <v>10.7</v>
+      </c>
+      <c r="F248" t="n">
+        <v>157.3000000000002</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="inlineStr">
         <is>
-          <t>2021年5月</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>5.8</v>
+        <v>11.3</v>
       </c>
       <c r="C249" t="n">
-        <v>168.8</v>
+        <v>158.7</v>
       </c>
       <c r="D249" t="n">
-        <v>871.8</v>
+        <v>1360.5</v>
       </c>
       <c r="E249" t="n">
-        <v>10.3</v>
+        <v>10.8</v>
+      </c>
+      <c r="F249" t="n">
+        <v>158.5999999999999</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="inlineStr">
         <is>
-          <t>2021年6月</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>13.1</v>
+        <v>7.1</v>
       </c>
       <c r="C250" t="n">
-        <v>172.2</v>
+        <v>156.8</v>
       </c>
       <c r="D250" t="n">
-        <v>1044.6</v>
+        <v>1518.3</v>
       </c>
       <c r="E250" t="n">
-        <v>10.9</v>
+        <v>10.4</v>
+      </c>
+      <c r="F250" t="n">
+        <v>157.8</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="inlineStr">
         <is>
-          <t>2021年7月</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>9.800000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="C251" t="n">
-        <v>157.6</v>
+        <v>164.5</v>
       </c>
       <c r="D251" t="n">
-        <v>1201.9</v>
+        <v>1684.3</v>
       </c>
       <c r="E251" t="n">
-        <v>10.7</v>
+        <v>9.4</v>
+      </c>
+      <c r="F251" t="n">
+        <v>166</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="inlineStr">
         <is>
-          <t>2021年8月</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>11.3</v>
+        <v>4.4</v>
       </c>
       <c r="C252" t="n">
-        <v>158.7</v>
+        <v>177.3</v>
       </c>
       <c r="D252" t="n">
-        <v>1360.5</v>
+        <v>1860.5</v>
       </c>
       <c r="E252" t="n">
-        <v>10.8</v>
+        <v>8.9</v>
+      </c>
+      <c r="F252" t="n">
+        <v>176.2</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="inlineStr">
         <is>
-          <t>2021年9月</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>7.1</v>
+        <v>2.3</v>
       </c>
       <c r="C253" t="n">
-        <v>156.8</v>
+        <v>191.9</v>
       </c>
       <c r="D253" t="n">
-        <v>1518.3</v>
+        <v>2052.6</v>
       </c>
       <c r="E253" t="n">
-        <v>10.4</v>
+        <v>8.199999999999999</v>
+      </c>
+      <c r="F253" t="n">
+        <v>192.0999999999999</v>
       </c>
     </row>
   </sheetData>
